--- a/PricerAndQutation/OptionPricer_v2_20180514.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180514.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="265">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -953,6 +953,29 @@
   </si>
   <si>
     <t>cf901</t>
+  </si>
+  <si>
+    <t>al1808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中天科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hc1810</t>
+  </si>
+  <si>
+    <t>hc1810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1823,22 +1846,22 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>11600</v>
+        <v>11410</v>
         <stp/>
         <stp>ru1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P36" s="1"/>
         <tr r="P37" s="1"/>
-        <tr r="P36" s="1"/>
       </tp>
       <tp>
-        <v>13565</v>
+        <v>13405</v>
         <stp/>
         <stp>ru1901</stp>
         <stp>LastPrice</stp>
         <tr r="P38" s="1"/>
       </tp>
       <tp>
-        <v>14700</v>
+        <v>14760</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
@@ -1846,7 +1869,7 @@
         <tr r="P8" s="1"/>
       </tp>
       <tp>
-        <v>488</v>
+        <v>485.5</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
@@ -1855,17 +1878,25 @@
         <tr r="P29" s="1"/>
       </tp>
       <tp>
-        <v>9258</v>
+        <v>9498</v>
         <stp/>
         <stp>ap901</stp>
         <stp>LastPrice</stp>
+        <tr r="P47" s="1"/>
+        <tr r="P45" s="1"/>
+        <tr r="P44" s="1"/>
         <tr r="P46" s="1"/>
-        <tr r="P45" s="1"/>
-        <tr r="P47" s="1"/>
-        <tr r="P44" s="1"/>
       </tp>
       <tp>
-        <v>3030</v>
+        <v>3801</v>
+        <stp/>
+        <stp>hc1810</stp>
+        <stp>LastPrice</stp>
+        <tr r="P60" s="1"/>
+        <tr r="P61" s="1"/>
+      </tp>
+      <tp>
+        <v>2971</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
@@ -1875,22 +1906,22 @@
         <tr r="P26" s="9"/>
       </tp>
       <tp>
-        <v>3667</v>
+        <v>3683</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="P14" s="9"/>
+        <tr r="P19" s="1"/>
         <tr r="P20" s="1"/>
         <tr r="P21" s="1"/>
-        <tr r="P19" s="1"/>
       </tp>
-      <tp>
-        <v>3900</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
+        <tr r="H8" s="7"/>
         <tr r="H8" s="8"/>
-        <tr r="H8" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2185,10 +2216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:V115"/>
+  <dimension ref="B1:V116"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103:R113"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114:R116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7285,42 +7316,157 @@
       </c>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B114" s="92"/>
-      <c r="C114" s="92"/>
-      <c r="D114" s="93"/>
-      <c r="E114" s="93"/>
-      <c r="F114" s="92"/>
-      <c r="G114" s="92"/>
-      <c r="H114" s="92"/>
-      <c r="I114" s="92"/>
-      <c r="J114" s="92"/>
-      <c r="K114" s="92"/>
-      <c r="L114" s="92"/>
-      <c r="M114" s="92"/>
-      <c r="N114" s="99"/>
-      <c r="O114" s="92"/>
-      <c r="P114" s="92"/>
-      <c r="Q114" s="92"/>
-      <c r="R114" s="92"/>
+      <c r="B114" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G114" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J114" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K114" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M114" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N114" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O114" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P114" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q114" s="33"/>
+      <c r="R114" s="33" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B115" s="92"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="93"/>
-      <c r="E115" s="93"/>
-      <c r="F115" s="92"/>
-      <c r="G115" s="92"/>
-      <c r="H115" s="92"/>
-      <c r="I115" s="92"/>
-      <c r="J115" s="92"/>
-      <c r="K115" s="92"/>
+      <c r="B115" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="D115" s="93">
+        <v>43235</v>
+      </c>
+      <c r="E115" s="93">
+        <v>43266</v>
+      </c>
+      <c r="F115" s="92">
+        <v>3800</v>
+      </c>
+      <c r="G115" s="92">
+        <v>31</v>
+      </c>
+      <c r="H115" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I115" s="92">
+        <v>0</v>
+      </c>
+      <c r="J115" s="92">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K115" s="92">
+        <v>-130.29432448217995</v>
+      </c>
       <c r="L115" s="92"/>
-      <c r="M115" s="92"/>
-      <c r="N115" s="99"/>
-      <c r="O115" s="92"/>
-      <c r="P115" s="92"/>
-      <c r="Q115" s="92"/>
-      <c r="R115" s="92"/>
+      <c r="M115" s="92">
+        <v>0</v>
+      </c>
+      <c r="N115" s="99">
+        <v>130.29432448217995</v>
+      </c>
+      <c r="O115" s="92">
+        <v>3795</v>
+      </c>
+      <c r="P115" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q115" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R115" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B116" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="93">
+        <v>43235</v>
+      </c>
+      <c r="E116" s="93">
+        <v>43266</v>
+      </c>
+      <c r="F116" s="92">
+        <v>3700</v>
+      </c>
+      <c r="G116" s="92">
+        <v>31</v>
+      </c>
+      <c r="H116" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I116" s="92">
+        <v>0</v>
+      </c>
+      <c r="J116" s="92">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K116" s="92">
+        <v>-84.308597399370683</v>
+      </c>
+      <c r="L116" s="92"/>
+      <c r="M116" s="92">
+        <v>0</v>
+      </c>
+      <c r="N116" s="99">
+        <v>84.308597399370683</v>
+      </c>
+      <c r="O116" s="92">
+        <v>3795</v>
+      </c>
+      <c r="P116" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q116" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R116" s="92" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7517,20 +7663,20 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3900</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -7542,32 +7688,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>189.76341985366889</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="24" t="e">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.5643835616438357</v>
-      </c>
-      <c r="R8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="24" t="e">
         <f>O8+Q8</f>
-        <v>192.32780341531273</v>
-      </c>
-      <c r="S8" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S8" s="26" t="e">
         <f>R8/H8</f>
-        <v>4.9314821388541728E-2</v>
-      </c>
-      <c r="T8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.63802132026467007</v>
-      </c>
-      <c r="U8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.1851263761293467</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -7599,11 +7745,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -7669,11 +7815,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -8392,8 +8538,8 @@
   <dimension ref="B1:Y62"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <pane ySplit="17" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -8914,7 +9060,7 @@
       <c r="H23" s="124"/>
       <c r="I23" s="130">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="J23" s="132"/>
       <c r="L23" s="124" t="s">
@@ -8923,7 +9069,7 @@
       <c r="M23" s="124"/>
       <c r="N23" s="130">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="O23" s="132"/>
       <c r="Q23" s="124" t="s">
@@ -8932,7 +9078,7 @@
       <c r="R23" s="124"/>
       <c r="S23" s="130">
         <f ca="1">TODAY()-1</f>
-        <v>43233</v>
+        <v>43234</v>
       </c>
       <c r="T23" s="132"/>
       <c r="V23" s="124" t="s">
@@ -8941,7 +9087,7 @@
       <c r="W23" s="124"/>
       <c r="X23" s="130">
         <f ca="1">TODAY()-1</f>
-        <v>43233</v>
+        <v>43234</v>
       </c>
       <c r="Y23" s="132"/>
     </row>
@@ -9861,56 +10007,95 @@
       </c>
       <c r="T48" s="129"/>
     </row>
-    <row r="49" spans="2:5" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="131" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="C49" s="131"/>
       <c r="D49" s="131"/>
       <c r="E49" s="131"/>
-    </row>
-    <row r="50" spans="2:5" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="G49" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="131"/>
+    </row>
+    <row r="50" spans="2:10" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B50" s="124" t="s">
         <v>122</v>
       </c>
       <c r="C50" s="124"/>
       <c r="D50" s="130">
-        <v>43229</v>
+        <v>43235</v>
       </c>
       <c r="E50" s="132"/>
-    </row>
-    <row r="51" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G50" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="124"/>
+      <c r="I50" s="130">
+        <v>43235</v>
+      </c>
+      <c r="J50" s="132"/>
+    </row>
+    <row r="51" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B51" s="124" t="s">
         <v>124</v>
       </c>
       <c r="C51" s="124"/>
       <c r="D51" s="125" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E51" s="126"/>
-    </row>
-    <row r="52" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G51" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="124"/>
+      <c r="I51" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="J51" s="126"/>
+    </row>
+    <row r="52" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B52" s="124" t="s">
         <v>127</v>
       </c>
       <c r="C52" s="124"/>
       <c r="D52" s="125" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="E52" s="126"/>
-    </row>
-    <row r="53" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G52" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" s="124"/>
+      <c r="I52" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="126"/>
+    </row>
+    <row r="53" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B53" s="124" t="s">
         <v>179</v>
       </c>
       <c r="C53" s="124"/>
       <c r="D53" s="125">
         <f>D58*D60</f>
-        <v>410500.00000000006</v>
+        <v>280000</v>
       </c>
       <c r="E53" s="126"/>
-    </row>
-    <row r="54" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G53" s="124" t="s">
+        <v>129</v>
+      </c>
+      <c r="H53" s="124"/>
+      <c r="I53" s="125">
+        <f>I58*I60</f>
+        <v>936000</v>
+      </c>
+      <c r="J53" s="126"/>
+    </row>
+    <row r="54" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B54" s="124" t="s">
         <v>131</v>
       </c>
@@ -9919,69 +10104,125 @@
         <v>190</v>
       </c>
       <c r="E54" s="126"/>
-    </row>
-    <row r="55" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G54" s="124" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="124"/>
+      <c r="I54" s="125" t="s">
+        <v>208</v>
+      </c>
+      <c r="J54" s="126"/>
+    </row>
+    <row r="55" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B55" s="124" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="124"/>
       <c r="D55" s="130">
-        <f>D50+98</f>
-        <v>43327</v>
+        <f>D50+87</f>
+        <v>43322</v>
       </c>
       <c r="E55" s="126"/>
-    </row>
-    <row r="56" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G55" s="124" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="124"/>
+      <c r="I55" s="130">
+        <v>43294</v>
+      </c>
+      <c r="J55" s="126"/>
+    </row>
+    <row r="56" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B56" s="124" t="s">
         <v>136</v>
       </c>
       <c r="C56" s="124"/>
       <c r="D56" s="125">
-        <v>470.5</v>
+        <v>14825</v>
       </c>
       <c r="E56" s="126"/>
-    </row>
-    <row r="57" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G56" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="145"/>
+      <c r="I56" s="125">
+        <v>14730</v>
+      </c>
+      <c r="J56" s="126"/>
+    </row>
+    <row r="57" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B57" s="124" t="s">
         <v>138</v>
       </c>
       <c r="C57" s="124"/>
       <c r="D57" s="125">
-        <v>470.5</v>
+        <v>14100</v>
       </c>
       <c r="E57" s="126"/>
-    </row>
-    <row r="58" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G57" s="124" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="124"/>
+      <c r="I57" s="125">
+        <v>14500</v>
+      </c>
+      <c r="J57" s="126"/>
+    </row>
+    <row r="58" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B58" s="124" t="s">
         <v>140</v>
       </c>
       <c r="C58" s="124"/>
       <c r="D58" s="125">
-        <v>32.840000000000003</v>
+        <v>140</v>
       </c>
       <c r="E58" s="126"/>
-    </row>
-    <row r="59" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G58" s="124" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="124"/>
+      <c r="I58" s="125">
+        <v>312</v>
+      </c>
+      <c r="J58" s="126"/>
+    </row>
+    <row r="59" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B59" s="124" t="s">
         <v>142</v>
       </c>
       <c r="C59" s="124"/>
       <c r="D59" s="125" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="E59" s="126"/>
-    </row>
-    <row r="60" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G59" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" s="124"/>
+      <c r="I59" s="125" t="s">
+        <v>262</v>
+      </c>
+      <c r="J59" s="126"/>
+    </row>
+    <row r="60" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B60" s="124" t="s">
         <v>145</v>
       </c>
       <c r="C60" s="124"/>
       <c r="D60" s="125">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="126"/>
-    </row>
-    <row r="61" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="124" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" s="124"/>
+      <c r="I60" s="125">
+        <v>3000</v>
+      </c>
+      <c r="J60" s="126"/>
+    </row>
+    <row r="61" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B61" s="127" t="s">
         <v>147</v>
       </c>
@@ -9990,10 +10231,43 @@
         <v>207</v>
       </c>
       <c r="E61" s="129"/>
-    </row>
-    <row r="62" spans="2:5" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="G61" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="127"/>
+      <c r="I61" s="128" t="s">
+        <v>205</v>
+      </c>
+      <c r="J61" s="129"/>
+    </row>
+    <row r="62" spans="2:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="351">
+  <mergeCells count="376">
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
     <mergeCell ref="L48:M48"/>
@@ -10355,10 +10629,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="D28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10524,11 +10798,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E25" ca="1" si="0">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -10548,7 +10822,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-4.3929856249942532</v>
+        <v>-3.9207204133237781</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -10557,11 +10831,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>4.3929856249942532</v>
+        <v>3.9207204133237781</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14700</v>
+        <v>14760</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -10575,15 +10849,15 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>2.988425595234186E-4</v>
+        <v>2.6563146431732916E-4</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>8.2973723522172804E-3</v>
+        <v>7.4584751224904267E-3</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-1.6688089457280881</v>
+        <v>-1.5265335900654406</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10599,11 +10873,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="G9" s="10">
         <v>11500</v>
@@ -10623,7 +10897,7 @@
       </c>
       <c r="L9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-4.3929856249942532</v>
+        <v>-3.9207204133237781</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="13">
@@ -10632,11 +10906,11 @@
       </c>
       <c r="O9" s="13">
         <f>IF(L9&lt;=0,ABS(L9)+N9,L9-N9)</f>
-        <v>4.3929856249942532</v>
+        <v>3.9207204133237781</v>
       </c>
       <c r="P9" s="11">
         <f>RTD("wdf.rtq",,D9,"LastPrice")</f>
-        <v>14700</v>
+        <v>14760</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>85</v>
@@ -10650,15 +10924,15 @@
       </c>
       <c r="T9" s="14">
         <f t="shared" ref="T9" si="8">O9/P9</f>
-        <v>2.988425595234186E-4</v>
+        <v>2.6563146431732916E-4</v>
       </c>
       <c r="U9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>8.2973723522172804E-3</v>
+        <v>7.4584751224904267E-3</v>
       </c>
       <c r="V9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-1.6688089457280881</v>
+        <v>-1.5265335900654406</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
@@ -10680,11 +10954,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ref="F11" ca="1" si="9">E11+H11</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="G11" s="11">
         <v>3700</v>
@@ -10766,11 +11040,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="13">E13+H13</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G13" s="11">
         <f>P13</f>
@@ -10852,11 +11126,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14" ca="1" si="17">E14+H14</f>
-        <v>43294</v>
+        <v>43295</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" ref="G14:G23" si="18">P14</f>
@@ -10963,11 +11237,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="22">E16+H16</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="18"/>
@@ -11074,11 +11348,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F21" ca="1" si="26">E18+H18</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="18"/>
@@ -11160,11 +11434,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43262</v>
+        <v>43263</v>
       </c>
       <c r="G19" s="11">
         <v>3300</v>
@@ -11184,7 +11458,7 @@
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>3.5897281315199336</v>
+        <v>3.0112171525364033</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="13">
@@ -11193,11 +11467,11 @@
       </c>
       <c r="O19" s="13">
         <f>IF(L19&lt;=0,ABS(L19)+N19,L19-N19)</f>
-        <v>3.5897281315199336</v>
+        <v>3.0112171525364033</v>
       </c>
       <c r="P19" s="11">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>3667</v>
+        <v>3683</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -11211,15 +11485,15 @@
       </c>
       <c r="T19" s="14">
         <f t="shared" si="29"/>
-        <v>9.7892776970819029E-4</v>
+        <v>8.1759900964876553E-4</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-3.9053435655489466E-2</v>
+        <v>-3.3385766418092544E-2</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>0.85809052397934948</v>
+        <v>0.75821148023418061</v>
       </c>
       <c r="W19" s="114">
         <v>37.799999999999997</v>
@@ -11230,7 +11504,7 @@
       </c>
       <c r="Y19" s="6">
         <f>500*U19</f>
-        <v>-19.526717827744733</v>
+        <v>-16.692883209046272</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11246,11 +11520,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43262</v>
+        <v>43263</v>
       </c>
       <c r="G20" s="11">
         <v>3350</v>
@@ -11270,7 +11544,7 @@
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>6.8068524723980204</v>
+        <v>5.8061458037360865</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="13">
@@ -11279,11 +11553,11 @@
       </c>
       <c r="O20" s="13">
         <f>IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>6.8068524723980204</v>
+        <v>5.8061458037360865</v>
       </c>
       <c r="P20" s="11">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>3667</v>
+        <v>3683</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -11297,15 +11571,15 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" si="29"/>
-        <v>1.8562455610575458E-3</v>
+        <v>1.5764718446201701E-3</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-6.6970209016403714E-2</v>
+        <v>-5.8281241282998053E-2</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>1.3166593446108692</v>
+        <v>1.1867722086642516</v>
       </c>
       <c r="W20" s="114">
         <v>37.799999999999997</v>
@@ -11316,7 +11590,7 @@
       </c>
       <c r="Y20" s="6">
         <f>500*U20</f>
-        <v>-33.485104508201857</v>
+        <v>-29.140620641499027</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11332,11 +11606,11 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43262</v>
+        <v>43263</v>
       </c>
       <c r="G21" s="11">
         <v>3400</v>
@@ -11356,7 +11630,7 @@
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>11.994525865916387</v>
+        <v>10.389699091480168</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="13">
@@ -11365,11 +11639,11 @@
       </c>
       <c r="O21" s="13">
         <f>IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>11.994525865916387</v>
+        <v>10.389699091480168</v>
       </c>
       <c r="P21" s="11">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3667</v>
+        <v>3683</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
@@ -11383,15 +11657,15 @@
       </c>
       <c r="T21" s="14">
         <f t="shared" si="29"/>
-        <v>3.270936969161818E-3</v>
+        <v>2.8209880780559783E-3</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.10653789397849778</v>
+        <v>-9.4257227073057948E-2</v>
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>1.8641474629947652</v>
+        <v>1.712228952099764</v>
       </c>
       <c r="W21" s="114">
         <v>37.799999999999997</v>
@@ -11402,7 +11676,7 @@
       </c>
       <c r="Y21" s="6">
         <f>500*U21</f>
-        <v>-53.268946989248889</v>
+        <v>-47.128613536528974</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11443,11 +11717,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ref="F23" ca="1" si="30">E23+H23</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="18"/>
@@ -11553,11 +11827,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" ca="1" si="34">E25+H25</f>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G25" s="11">
         <v>49000</v>
@@ -11673,11 +11947,11 @@
       <c r="S27" s="10"/>
       <c r="T27" s="14">
         <f>T28+T29</f>
-        <v>0.14474294812471111</v>
+        <v>0.14573682707165364</v>
       </c>
       <c r="U27" s="12">
         <f>T27/2</f>
-        <v>7.2371474062355556E-2</v>
+        <v>7.286841353582682E-2</v>
       </c>
       <c r="V27" s="13"/>
     </row>
@@ -11694,11 +11968,11 @@
       </c>
       <c r="E28" s="8">
         <f t="shared" ref="E28:E36" ca="1" si="38">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ref="F28:F37" ca="1" si="39">E28+H28</f>
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="G28" s="11">
         <v>500</v>
@@ -11718,7 +11992,7 @@
       </c>
       <c r="L28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-41.285146515999003</v>
+        <v>-42.588787606373756</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="13">
@@ -11727,11 +12001,11 @@
       </c>
       <c r="O28" s="13">
         <f>IF(L28&lt;=0,ABS(L28)+N28,L28-N28)</f>
-        <v>41.285146515999003</v>
+        <v>42.588787606373756</v>
       </c>
       <c r="P28" s="11">
         <f>RTD("wdf.rtq",,D28,"LastPrice")</f>
-        <v>488</v>
+        <v>485.5</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>85</v>
@@ -11745,15 +12019,15 @@
       </c>
       <c r="T28" s="14">
         <f t="shared" ref="T28:T37" si="42">O28/P28</f>
-        <v>8.4600710073768445E-2</v>
+        <v>8.7721498674302276E-2</v>
       </c>
       <c r="U28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>0.51577010058423411</v>
+        <v>0.52714919598457755</v>
       </c>
       <c r="V28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-1.0022841449771533</v>
+        <v>-0.99540348639240506</v>
       </c>
       <c r="W28" s="114">
         <v>37.799999999999997</v>
@@ -11764,11 +12038,11 @@
       </c>
       <c r="Y28" s="6">
         <f>500*U28</f>
-        <v>257.88505029211706</v>
+        <v>263.57459799228877</v>
       </c>
       <c r="Z28" s="119">
         <f>U28+U29</f>
-        <v>3.6895672243986155E-2</v>
+        <v>5.965386304040976E-2</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11784,11 +12058,11 @@
       </c>
       <c r="E29" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="G29" s="11">
         <v>500</v>
@@ -11808,7 +12082,7 @@
       </c>
       <c r="L29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-29.349412168860027</v>
+        <v>-28.166441936914083</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="13">
@@ -11817,11 +12091,11 @@
       </c>
       <c r="O29" s="13">
         <f>IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
-        <v>29.349412168860027</v>
+        <v>28.166441936914083</v>
       </c>
       <c r="P29" s="11">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>488</v>
+        <v>485.5</v>
       </c>
       <c r="Q29" s="10" t="s">
         <v>39</v>
@@ -11835,15 +12109,15 @@
       </c>
       <c r="T29" s="14">
         <f t="shared" si="42"/>
-        <v>6.0142238050942681E-2</v>
+        <v>5.8015328397351358E-2</v>
       </c>
       <c r="U29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.47887442834024796</v>
+        <v>-0.46749533294416779</v>
       </c>
       <c r="V29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-1.0022841449771533</v>
+        <v>-0.9954034863924619</v>
       </c>
       <c r="W29" s="114">
         <v>37.799999999999997</v>
@@ -11854,7 +12128,7 @@
       </c>
       <c r="Y29" s="6">
         <f>500*U29</f>
-        <v>-239.43721417012398</v>
+        <v>-233.74766647208389</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11896,11 +12170,11 @@
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" ref="G31:G34" si="43">P31</f>
@@ -11982,11 +12256,11 @@
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="43"/>
@@ -12094,11 +12368,11 @@
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="43"/>
@@ -12206,11 +12480,11 @@
       </c>
       <c r="E36" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G36" s="11">
         <v>12105</v>
@@ -12230,22 +12504,22 @@
       </c>
       <c r="L36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-202.58986664822714</v>
+        <v>-147.18874836604164</v>
       </c>
       <c r="M36" s="15">
         <v>70</v>
       </c>
       <c r="N36" s="13">
         <f t="shared" si="40"/>
-        <v>6.6739726027397257</v>
+        <v>6.5646575342465745</v>
       </c>
       <c r="O36" s="13">
         <f>IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
-        <v>209.26383925096687</v>
+        <v>153.75340590028821</v>
       </c>
       <c r="P36" s="11">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>11600</v>
+        <v>11410</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>39</v>
@@ -12259,15 +12533,15 @@
       </c>
       <c r="T36" s="14">
         <f t="shared" si="42"/>
-        <v>1.8039986142324729E-2</v>
+        <v>1.3475320411944628E-2</v>
       </c>
       <c r="U36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-0.32493429198439117</v>
+        <v>-0.25920644318375707</v>
       </c>
       <c r="V36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-11.955268173986497</v>
+        <v>-10.582960133488768</v>
       </c>
       <c r="W36" s="114">
         <v>37.799999999999997</v>
@@ -12278,7 +12552,7 @@
       </c>
       <c r="Y36" s="6">
         <f>500*U36</f>
-        <v>-162.46714599219558</v>
+        <v>-129.60322159187854</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12294,11 +12568,11 @@
       </c>
       <c r="E37" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43324</v>
+        <v>43325</v>
       </c>
       <c r="G37" s="11">
         <v>12105</v>
@@ -12318,22 +12592,22 @@
       </c>
       <c r="L37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-499.81165553928076</v>
+        <v>-424.17730724480271</v>
       </c>
       <c r="M37" s="15">
         <v>70</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="40"/>
-        <v>20.021917808219179</v>
+        <v>19.693972602739727</v>
       </c>
       <c r="O37" s="13">
         <f>IF(L37&lt;=0,ABS(L37)+N37,L37-N37)</f>
-        <v>519.83357334749996</v>
+        <v>443.87127984754244</v>
       </c>
       <c r="P37" s="11">
         <f>RTD("wdf.rtq",,D37,"LastPrice")</f>
-        <v>11600</v>
+        <v>11410</v>
       </c>
       <c r="Q37" s="10" t="s">
         <v>39</v>
@@ -12347,15 +12621,15 @@
       </c>
       <c r="T37" s="14">
         <f t="shared" si="42"/>
-        <v>4.4813239081681035E-2</v>
+        <v>3.8901952659732029E-2</v>
       </c>
       <c r="U37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-0.41872459050864563</v>
+        <v>-0.37749974551388732</v>
       </c>
       <c r="V37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-22.413512701150921</v>
+        <v>-21.454138175872686</v>
       </c>
       <c r="W37" s="114">
         <v>37.799999999999997</v>
@@ -12366,7 +12640,7 @@
       </c>
       <c r="Y37" s="6">
         <f>500*U37</f>
-        <v>-209.36229525432282</v>
+        <v>-188.74987275694366</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12382,11 +12656,11 @@
       </c>
       <c r="E38" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ref="F38" ca="1" si="44">E38+H38</f>
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="G38" s="11">
         <v>12105</v>
@@ -12406,22 +12680,22 @@
       </c>
       <c r="L38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-1756.4433096703942</v>
+        <v>-1634.0045778743497</v>
       </c>
       <c r="M38" s="15">
         <v>70</v>
       </c>
       <c r="N38" s="13">
         <f t="shared" ref="N38" si="45">M38/10000*I38*P38</f>
-        <v>26.015068493150686</v>
+        <v>25.708219178082192</v>
       </c>
       <c r="O38" s="13">
         <f>IF(L38&lt;=0,ABS(L38)+N38,L38-N38)</f>
-        <v>1782.4583781635449</v>
+        <v>1659.7127970524318</v>
       </c>
       <c r="P38" s="11">
         <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
-        <v>13565</v>
+        <v>13405</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>39</v>
@@ -12435,15 +12709,15 @@
       </c>
       <c r="T38" s="14">
         <f t="shared" ref="T38" si="47">O38/P38</f>
-        <v>0.13140128110309951</v>
+        <v>0.12381296509156522</v>
       </c>
       <c r="U38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-0.77600326603715075</v>
+        <v>-0.75424553942866623</v>
       </c>
       <c r="V38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-20.889649371919404</v>
+        <v>-21.768581662970064</v>
       </c>
       <c r="W38" s="114">
         <v>37.799999999999997</v>
@@ -12454,7 +12728,7 @@
       </c>
       <c r="Y38" s="6">
         <f>500*U38</f>
-        <v>-388.00163301857538</v>
+        <v>-377.12276971433312</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12470,11 +12744,11 @@
       </c>
       <c r="E40" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ref="F40:F41" ca="1" si="48">E40+H40</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G40" s="11">
         <v>15800</v>
@@ -12559,11 +12833,11 @@
       </c>
       <c r="E41" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" ca="1" si="48"/>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G41" s="11">
         <v>15900</v>
@@ -12648,11 +12922,11 @@
       </c>
       <c r="E42" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" ref="F42" ca="1" si="52">E42+H42</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G42" s="11">
         <v>15660</v>
@@ -12737,11 +13011,11 @@
       </c>
       <c r="E44" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" ref="F44:F45" ca="1" si="56">E44+H44</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G44" s="11">
         <v>9000</v>
@@ -12761,7 +13035,7 @@
       </c>
       <c r="L44" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-683.16308216391735</v>
+        <v>-835.04273259766705</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="13">
@@ -12770,11 +13044,11 @@
       </c>
       <c r="O44" s="13">
         <f>IF(L44&lt;=0,ABS(L44)+N44,L44-N44)</f>
-        <v>683.16308216391735</v>
+        <v>835.04273259766705</v>
       </c>
       <c r="P44" s="11">
         <f>RTD("wdf.rtq",,D44,"LastPrice")</f>
-        <v>9258</v>
+        <v>9498</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>39</v>
@@ -12788,15 +13062,15 @@
       </c>
       <c r="T44" s="14">
         <f t="shared" ref="T44:T45" si="59">O44/P44</f>
-        <v>7.3791648537904223E-2</v>
+        <v>8.7917744009019486E-2</v>
       </c>
       <c r="U44" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-0.60067401454944047</v>
+        <v>-0.66409483456482121</v>
       </c>
       <c r="V44" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-17.822191209645098</v>
+        <v>-17.233720745063692</v>
       </c>
       <c r="W44" s="114">
         <v>37.799999999999997</v>
@@ -12807,11 +13081,11 @@
       </c>
       <c r="Y44" s="6">
         <f>500*U44</f>
-        <v>-300.33700727472024</v>
+        <v>-332.04741728241061</v>
       </c>
       <c r="Z44" s="6">
         <f>1000000/P44/10</f>
-        <v>10.801468999783971</v>
+        <v>10.528532322594231</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12827,11 +13101,11 @@
       </c>
       <c r="E45" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G45" s="11">
         <v>10000</v>
@@ -12851,7 +13125,7 @@
       </c>
       <c r="L45" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-279.54758330333971</v>
+        <v>-366.19589763446311</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="13">
@@ -12860,11 +13134,11 @@
       </c>
       <c r="O45" s="13">
         <f>IF(L45&lt;=0,ABS(L45)+N45,L45-N45)</f>
-        <v>279.54758330333971</v>
+        <v>366.19589763446311</v>
       </c>
       <c r="P45" s="11">
         <f>RTD("wdf.rtq",,D45,"LastPrice")</f>
-        <v>9258</v>
+        <v>9498</v>
       </c>
       <c r="Q45" s="10" t="s">
         <v>39</v>
@@ -12878,15 +13152,15 @@
       </c>
       <c r="T45" s="14">
         <f t="shared" si="59"/>
-        <v>3.019524555015551E-2</v>
+        <v>3.8555053446458529E-2</v>
       </c>
       <c r="U45" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-0.32954490518477542</v>
+        <v>-0.39288416844556195</v>
       </c>
       <c r="V45" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-16.770248059528967</v>
+        <v>-18.265567169204132</v>
       </c>
       <c r="W45" s="114">
         <v>37.799999999999997</v>
@@ -12897,7 +13171,7 @@
       </c>
       <c r="Y45" s="6">
         <f>500*U45</f>
-        <v>-164.77245259238771</v>
+        <v>-196.44208422278098</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12913,11 +13187,11 @@
       </c>
       <c r="E46" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" ref="F46:F47" ca="1" si="60">E46+H46</f>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="G46" s="11">
         <v>9000</v>
@@ -12937,7 +13211,7 @@
       </c>
       <c r="L46" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-898.91810763322883</v>
+        <v>-1045.6992974906634</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="13">
@@ -12946,11 +13220,11 @@
       </c>
       <c r="O46" s="13">
         <f>IF(L46&lt;=0,ABS(L46)+N46,L46-N46)</f>
-        <v>898.91810763322883</v>
+        <v>1045.6992974906634</v>
       </c>
       <c r="P46" s="11">
         <f>RTD("wdf.rtq",,D46,"LastPrice")</f>
-        <v>9258</v>
+        <v>9498</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>39</v>
@@ -12964,15 +13238,15 @@
       </c>
       <c r="T46" s="14">
         <f t="shared" ref="T46:T47" si="63">O46/P46</f>
-        <v>9.7096360729447925E-2</v>
+        <v>0.11009678853344529</v>
       </c>
       <c r="U46" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-0.58861769248323981</v>
+        <v>-0.63409153117390815</v>
       </c>
       <c r="V46" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-25.160265101677396</v>
+        <v>-24.897031187943867</v>
       </c>
       <c r="W46" s="114">
         <v>37.799999999999997</v>
@@ -12983,11 +13257,11 @@
       </c>
       <c r="Y46" s="6">
         <f>500*U46</f>
-        <v>-294.3088462416199</v>
+        <v>-317.04576558695408</v>
       </c>
       <c r="Z46" s="6">
         <f>638*U46</f>
-        <v>-375.538087804307</v>
+        <v>-404.5503968889534</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13003,11 +13277,11 @@
       </c>
       <c r="E47" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="G47" s="11">
         <v>10000</v>
@@ -13027,7 +13301,7 @@
       </c>
       <c r="L47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-491.35021583286834</v>
+        <v>-591.68160610284258</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="13">
@@ -13036,11 +13310,11 @@
       </c>
       <c r="O47" s="13">
         <f>IF(L47&lt;=0,ABS(L47)+N47,L47-N47)</f>
-        <v>491.35021583286834</v>
+        <v>591.68160610284258</v>
       </c>
       <c r="P47" s="11">
         <f>RTD("wdf.rtq",,D47,"LastPrice")</f>
-        <v>9258</v>
+        <v>9498</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>39</v>
@@ -13054,15 +13328,15 @@
       </c>
       <c r="T47" s="14">
         <f t="shared" si="63"/>
-        <v>5.3073041243558904E-2</v>
+        <v>6.2295389145382456E-2</v>
       </c>
       <c r="U47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-0.39471536958899378</v>
+        <v>-0.44136448766494141</v>
       </c>
       <c r="V47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-25.04999342119072</v>
+        <v>-26.316040152438973</v>
       </c>
       <c r="W47" s="114">
         <v>37.799999999999997</v>
@@ -13073,7 +13347,7 @@
       </c>
       <c r="Y47" s="6">
         <f>500*U47</f>
-        <v>-197.35768479449689</v>
+        <v>-220.6822438324707</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13089,11 +13363,11 @@
       </c>
       <c r="E49" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" ref="F49:F60" ca="1" si="64">E49+H49</f>
-        <v>43265</v>
+        <f t="shared" ref="F49:F56" ca="1" si="64">E49+H49</f>
+        <v>43266</v>
       </c>
       <c r="G49" s="11">
         <f>P49</f>
@@ -13118,7 +13392,7 @@
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="13">
-        <f t="shared" ref="N49:N60" si="65">M49/10000*I49*P49</f>
+        <f t="shared" ref="N49:N56" si="65">M49/10000*I49*P49</f>
         <v>0</v>
       </c>
       <c r="O49" s="13">
@@ -13132,14 +13406,14 @@
         <v>39</v>
       </c>
       <c r="R49" s="10">
-        <f t="shared" ref="R49:R60" si="66">IF(S49="中金买入",1,-1)</f>
+        <f t="shared" ref="R49:R56" si="66">IF(S49="中金买入",1,-1)</f>
         <v>1</v>
       </c>
       <c r="S49" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T49" s="14">
-        <f t="shared" ref="T49:T60" si="67">O49/P49</f>
+        <f t="shared" ref="T49:T56" si="67">O49/P49</f>
         <v>1.9729282070317496E-2</v>
       </c>
       <c r="U49" s="13">
@@ -13179,11 +13453,11 @@
       </c>
       <c r="E50" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" ca="1" si="64"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G50" s="11">
         <f>P50</f>
@@ -13260,7 +13534,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="11">
-        <f t="shared" ref="G51:G58" si="68">P51</f>
+        <f t="shared" ref="G51:G57" si="68">P51</f>
         <v>100</v>
       </c>
       <c r="H51" s="10"/>
@@ -13296,11 +13570,11 @@
       </c>
       <c r="E52" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" ref="F52:F53" ca="1" si="69">E52+H52</f>
-        <v>43295</v>
+        <v>43296</v>
       </c>
       <c r="G52" s="11">
         <f t="shared" si="68"/>
@@ -13386,11 +13660,11 @@
       </c>
       <c r="E53" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F53" s="8">
         <f t="shared" ca="1" si="69"/>
-        <v>43295</v>
+        <v>43296</v>
       </c>
       <c r="G53" s="11">
         <f t="shared" si="68"/>
@@ -13503,11 +13777,11 @@
       </c>
       <c r="E55" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F55" s="8">
         <f t="shared" ca="1" si="64"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="68"/>
@@ -13593,11 +13867,11 @@
       </c>
       <c r="E56" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F56" s="8">
         <f t="shared" ca="1" si="64"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="68"/>
@@ -13706,36 +13980,35 @@
         <v>160</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="E58" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F58" s="8">
         <f t="shared" ref="F58" ca="1" si="73">E58+H58</f>
-        <v>43265</v>
+        <v>43294</v>
       </c>
       <c r="G58" s="11">
-        <f t="shared" si="68"/>
-        <v>100</v>
+        <v>14500</v>
       </c>
       <c r="H58" s="10">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I58" s="12">
         <f>H58/365</f>
-        <v>8.4931506849315067E-2</v>
+        <v>0.16164383561643836</v>
       </c>
       <c r="J58" s="12">
         <v>0</v>
       </c>
       <c r="K58" s="117">
-        <v>0.1075</v>
+        <v>0.18</v>
       </c>
       <c r="L58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>1.2476635246627694</v>
+        <v>313.77814640214547</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="13">
@@ -13744,13 +14017,13 @@
       </c>
       <c r="O58" s="13">
         <f>IF(L58&lt;=0,ABS(L58)+N58,L58-N58)</f>
-        <v>1.2476635246627694</v>
+        <v>313.77814640214547</v>
       </c>
       <c r="P58" s="11">
-        <v>100</v>
+        <v>14735</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="R58" s="10">
         <f t="shared" ref="R58" si="75">IF(S58="中金买入",1,-1)</f>
@@ -13761,26 +14034,30 @@
       </c>
       <c r="T58" s="14">
         <f t="shared" ref="T58" si="76">O58/P58</f>
-        <v>1.2476635246627694E-2</v>
+        <v>2.1294750349653578E-2</v>
       </c>
       <c r="U58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>0.50538969170581538</v>
+        <v>-0.39678842481407628</v>
       </c>
       <c r="V58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>0.11605218969397768</v>
+        <v>22.782993796660321</v>
       </c>
       <c r="W58" s="114">
         <v>37.799999999999997</v>
       </c>
       <c r="X58" s="115">
         <f>G58-W58</f>
-        <v>62.2</v>
+        <v>14462.2</v>
       </c>
       <c r="Y58" s="6">
         <f>500*U58</f>
-        <v>252.69484585290769</v>
+        <v>-198.39421240703814</v>
+      </c>
+      <c r="Z58" s="6">
+        <f>600*U58</f>
+        <v>-238.07305488844577</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13809,57 +14086,185 @@
       <c r="W59" s="114"/>
       <c r="X59" s="115"/>
     </row>
-    <row r="60" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="34"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="117"/>
-      <c r="L60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43235</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" ref="F60:F61" ca="1" si="77">E60+H60</f>
+        <v>43266</v>
+      </c>
+      <c r="G60" s="11">
+        <v>3800</v>
+      </c>
+      <c r="H60" s="10">
+        <v>31</v>
+      </c>
+      <c r="I60" s="12">
+        <f>H60/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+      <c r="K60" s="117">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L60" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
+        <v>-127.385485958039</v>
+      </c>
       <c r="M60" s="15"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="114"/>
-      <c r="X60" s="115"/>
-    </row>
-    <row r="61" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N60" s="13">
+        <f t="shared" ref="N60:N61" si="78">M60/10000*I60*P60</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="13">
+        <f>IF(L60&lt;=0,ABS(L60)+N60,L60-N60)</f>
+        <v>127.385485958039</v>
+      </c>
+      <c r="P60" s="11">
+        <f>RTD("wdf.rtq",,D60,"LastPrice")</f>
+        <v>3801</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R60" s="10">
+        <f t="shared" ref="R60:R61" si="79">IF(S60="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="14">
+        <f t="shared" ref="T60:T61" si="80">O60/P60</f>
+        <v>3.3513676916084978E-2</v>
+      </c>
+      <c r="U60" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
+        <v>0.48108802939168527</v>
+      </c>
+      <c r="V60" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
+        <v>-4.4071465337423206</v>
+      </c>
+      <c r="W60" s="114">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X60" s="115">
+        <f>G60-W60</f>
+        <v>3762.2</v>
+      </c>
+      <c r="Y60" s="6">
+        <f>500*U60</f>
+        <v>240.54401469584263</v>
+      </c>
+      <c r="Z60" s="6">
+        <f>600*U60</f>
+        <v>288.65281763501116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="34"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43235</v>
+      </c>
+      <c r="F61" s="8">
+        <f t="shared" ca="1" si="77"/>
+        <v>43266</v>
+      </c>
+      <c r="G61" s="11">
+        <v>3700</v>
+      </c>
+      <c r="H61" s="10">
+        <v>31</v>
+      </c>
+      <c r="I61" s="12">
+        <f>H61/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="117">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L61" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
+        <v>-82.136801510152964</v>
+      </c>
       <c r="M61" s="15"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="114"/>
-      <c r="X61" s="115"/>
+      <c r="N61" s="13">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="13">
+        <f>IF(L61&lt;=0,ABS(L61)+N61,L61-N61)</f>
+        <v>82.136801510152964</v>
+      </c>
+      <c r="P61" s="11">
+        <f>RTD("wdf.rtq",,D61,"LastPrice")</f>
+        <v>3801</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R61" s="10">
+        <f t="shared" si="79"/>
+        <v>-1</v>
+      </c>
+      <c r="S61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="14">
+        <f t="shared" si="80"/>
+        <v>2.160926111816705E-2</v>
+      </c>
+      <c r="U61" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
+        <v>0.35847159743980228</v>
+      </c>
+      <c r="V61" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
+        <v>-4.1332662587161622</v>
+      </c>
+      <c r="W61" s="114">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X61" s="115">
+        <f>G61-W61</f>
+        <v>3662.2</v>
+      </c>
+      <c r="Y61" s="6">
+        <f>500*U61</f>
+        <v>179.23579871990114</v>
+      </c>
+      <c r="Z61" s="6">
+        <f>600*U61</f>
+        <v>215.08295846388137</v>
+      </c>
     </row>
     <row r="62" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="34"/>
@@ -13965,63 +14370,41 @@
       <c r="W65" s="114"/>
       <c r="X65" s="115"/>
     </row>
-    <row r="66" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="34"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="117"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="14"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="114"/>
-      <c r="X66" s="115"/>
-    </row>
-    <row r="68" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="34"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="14"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="114"/>
-      <c r="X68" s="115"/>
+    <row r="67" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="34"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="117"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="114"/>
+      <c r="X67" s="115"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="F73" s="122"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="122"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="F74" s="122"/>
-      <c r="G74" s="122"/>
-      <c r="H74" s="122"/>
-      <c r="I74" s="122"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="118"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F75" s="118"/>
@@ -14031,9 +14414,9 @@
       <c r="F76" s="118"/>
       <c r="G76" s="118"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="F77" s="118"/>
-      <c r="G77" s="118"/>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F79" s="118"/>
@@ -14050,10 +14433,6 @@
     <row r="82" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F82" s="118"/>
       <c r="G82" s="118"/>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F83" s="118"/>
-      <c r="G83" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14069,19 +14448,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S11 S13:S38 S40:S42 S44:S47 S68 S49:S66</xm:sqref>
+          <xm:sqref>S8:S9 S11 S13:S38 S40:S42 S44:S47 S67 S49:S65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q11 Q13:Q38 Q40:Q42 Q44:Q47 Q68 Q49:Q66</xm:sqref>
+          <xm:sqref>Q8:Q9 Q11 Q13:Q38 Q40:Q42 Q44:Q47 Q67 Q49:Q65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C11 C13:C38 C40:C42 C44:C47 C68 C49:C66</xm:sqref>
+          <xm:sqref>C8:C9 C11 C13:C38 C40:C42 C44:C47 C67 C49:C65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14269,11 +14648,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -14337,11 +14716,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -14408,11 +14787,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -14476,15 +14855,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>468</v>
+        <v>465.5</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -14501,17 +14880,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-4.2324490294078316</v>
+        <v>-4.1846822703317201</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>4.2324490294078316</v>
+        <v>4.1846822703317201</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>488</v>
+        <v>485.5</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -14526,11 +14905,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.23603112235264234</v>
+        <v>0.23491823804917544</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.30456206496206306</v>
+        <v>-0.30221244924802448</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -14546,15 +14925,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>518</v>
+        <v>515.5</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -14573,17 +14952,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.3913231595487758</v>
+        <v>2.3564052371428943</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.3913231595487758</v>
+        <v>2.3564052371428943</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>488</v>
+        <v>485.5</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -14598,11 +14977,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.16207669273313741</v>
+        <v>0.16083564883260237</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.24257033287273799</v>
+        <v>0.24012095555432467</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -14619,15 +14998,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>468|518</v>
+        <v>465.5|515.5</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -14641,7 +15020,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.8411258698590558</v>
+        <v>-1.8282770331888258</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -14652,11 +15031,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.8411258698590558</v>
+        <v>1.8282770331888258</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>488</v>
+        <v>485.5</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -14665,15 +15044,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.7727989136456062E-3</v>
+        <v>3.7657611394208567E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.39810781508577975</v>
+        <v>0.39575388688177782</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.1991732089325069E-2</v>
+        <v>-6.2091493693699817E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -14689,11 +15068,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -14714,17 +15093,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-318.12615723983481</v>
+        <v>-328.78669247415155</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>318.12615723983481</v>
+        <v>328.78669247415155</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3667</v>
+        <v>3683</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -14739,11 +15118,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.66102950283948303</v>
+        <v>-0.67150752413454029</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.6420789265002895</v>
+        <v>-6.5864388184004383</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -14760,11 +15139,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -14786,17 +15165,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>58.142490233973035</v>
+        <v>55.14042710737499</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>58.142490233973035</v>
+        <v>55.14042710737499</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3667</v>
+        <v>3683</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -14811,11 +15190,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.19183574671615133</v>
+        <v>-0.18346657966503699</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.9867780557912624</v>
+        <v>4.8725700953986006</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -14832,11 +15211,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -14854,7 +15233,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-259.98366700586178</v>
+        <v>-273.64626536677656</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -14865,11 +15244,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>259.98366700586178</v>
+        <v>273.64626536677656</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3667</v>
+        <v>3683</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -14878,15 +15257,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>7.0898191166038113E-2</v>
+        <v>7.4299827685793254E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.85286524955563436</v>
+        <v>-0.85497410379957728</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.6553008707090271</v>
+        <v>-1.7138687230018377</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -14903,11 +15282,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G18" s="120">
         <v>3000</v>
@@ -14927,17 +15306,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>42.280501166772183</v>
+        <v>71.111352721039339</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>42.280501166772183</v>
+        <v>71.111352721039339</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -14952,11 +15331,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.40575152293058636</v>
+        <v>-0.57241433527224217</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.4193539287806516</v>
+        <v>3.3895384852243069</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -14973,11 +15352,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G19" s="121">
         <v>3280</v>
@@ -14999,17 +15378,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-4.7134914546874427</v>
+        <v>-1.8724847386094012</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>4.7134914546874427</v>
+        <v>1.8724847386094012</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -15024,11 +15403,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-6.864096542074094E-2</v>
+        <v>-3.1391908364497567E-2</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-1.1664267899292469</v>
+        <v>-0.61212522804185454</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15045,11 +15424,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -15067,7 +15446,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>37.56700971208474</v>
+        <v>69.238867982429937</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -15078,26 +15457,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>37.56700971208474</v>
+        <v>69.238867982429937</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>1.2398353040291993E-2</v>
+        <v>2.3304903393614924E-2</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.4743924883513273</v>
+        <v>-0.60380624363673974</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>2.2529271388514047</v>
+        <v>2.7774132571824524</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -15113,11 +15492,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G21" s="120">
         <v>3000</v>
@@ -15137,17 +15516,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>81.919253968905878</v>
+        <v>110.28914578068884</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>81.919253968905878</v>
+        <v>110.28914578068884</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -15162,11 +15541,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.43266511731872015</v>
+        <v>-0.52950801507449796</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.9573688487122354</v>
+        <v>5.9012186356801521</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15183,11 +15562,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G22" s="121">
         <v>3280</v>
@@ -15209,17 +15588,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-29.653518817568624</v>
+        <v>-19.442604253726643</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>29.653518817568624</v>
+        <v>19.442604253726643</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -15234,11 +15613,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.20165281760000653</v>
+        <v>-0.14618646397366319</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-4.2674605144925977</v>
+        <v>-3.4088930653072396</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15255,11 +15634,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -15277,7 +15656,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>52.265735151337253</v>
+        <v>90.846541526962199</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -15288,26 +15667,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>52.265735151337253</v>
+        <v>90.846541526962199</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>1.7249417541695462E-2</v>
+        <v>3.0577765576224235E-2</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.63431793491872668</v>
+        <v>-0.67569447904816116</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>1.6899083342196377</v>
+        <v>2.4923255703729126</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -15324,11 +15703,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G26" s="120">
         <v>2950</v>
@@ -15348,17 +15727,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>24.48528647562955</v>
+        <v>45.125963866346638</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>24.48528647562955</v>
+        <v>45.125963866346638</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -15373,11 +15752,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.27473530064980878</v>
+        <v>-0.42963662867805397</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>2.9408078218272067</v>
+        <v>3.3955185858555978</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15394,11 +15773,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G27" s="121">
         <v>3350</v>
@@ -15420,17 +15799,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-1.7783840560064306</v>
+        <v>-0.6250013646839605</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>1.7783840560064306</v>
+        <v>0.6250013646839605</v>
       </c>
       <c r="P27" s="94">
         <f>P26</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -15445,11 +15824,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-2.9485595098321937E-2</v>
+        <v>-1.1812624408946704E-2</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.59284338436197714</v>
+        <v>-0.26831318825284178</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15466,11 +15845,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -15488,7 +15867,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>22.70690241962312</v>
+        <v>44.500962501662677</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -15499,26 +15878,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>22.70690241962312</v>
+        <v>44.500962501662677</v>
       </c>
       <c r="P28" s="111">
         <f>P27</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>7.4940272011957488E-3</v>
+        <v>1.4978445810051389E-2</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.30422089574813072</v>
+        <v>-0.44144925308700067</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>2.3479644374652295</v>
+        <v>3.1272053976027561</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -15534,11 +15913,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G29" s="120">
         <v>2950</v>
@@ -15558,17 +15937,17 @@
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>60.748195389779767</v>
+        <v>84.290863696520773</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>60.748195389779767</v>
+        <v>84.290863696520773</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -15583,11 +15962,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.35269277351517303</v>
+        <v>-0.44663143474963363</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>5.6307305064503907</v>
+        <v>5.8719168053859221</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15604,11 +15983,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G30" s="121">
         <v>3350</v>
@@ -15630,17 +16009,17 @@
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-19.221570338482138</v>
+        <v>-12.141095112408152</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>19.221570338482138</v>
+        <v>12.141095112408152</v>
       </c>
       <c r="P30" s="94">
         <f>P29</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -15655,11 +16034,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-0.14253905154362201</v>
+        <v>-9.9177183093956955E-2</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-3.4179312690203858</v>
+        <v>-2.5955178574662625</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15676,11 +16055,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -15698,7 +16077,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>41.526625051297628</v>
+        <v>72.149768584112621</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -15709,26 +16088,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>41.526625051297628</v>
+        <v>72.149768584112621</v>
       </c>
       <c r="P31" s="111">
         <f>P30</f>
-        <v>3030</v>
+        <v>2971</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>1.3705156782606477E-2</v>
+        <v>2.4284674716968234E-2</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.49523182505879504</v>
+        <v>-0.54580861784359058</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>2.212799237430005</v>
+        <v>3.2763989479196596</v>
       </c>
     </row>
   </sheetData>
@@ -16084,11 +16463,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -16166,11 +16545,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -16248,11 +16627,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -16330,11 +16709,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -16412,11 +16791,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -16494,11 +16873,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -17333,9 +17712,9 @@
       <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3900</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -17343,20 +17722,20 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="19" t="e">
         <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>3854.5749992553683</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L8" s="36">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -17371,32 +17750,32 @@
       <c r="R8" s="23">
         <v>0.3</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-78</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="24" t="e">
         <f>T8/10000*P8*H8</f>
-        <v>2.5643835616438357</v>
-      </c>
-      <c r="V8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" s="24" t="e">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>80.564383561643837</v>
-      </c>
-      <c r="W8" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W8" s="26" t="e">
         <f>V8/H8</f>
-        <v>2.0657534246575342E-2</v>
-      </c>
-      <c r="X8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -17438,11 +17817,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43414</v>
+        <v>43415</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -17550,11 +17929,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -17637,11 +18016,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -17724,11 +18103,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -17811,11 +18190,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -17898,11 +18277,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -17985,11 +18364,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>

--- a/PricerAndQutation/OptionPricer_v2_20180514.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180514.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="268">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -975,6 +975,17 @@
   </si>
   <si>
     <t>hc1810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr901</t>
+  </si>
+  <si>
+    <t>sr901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1766,11 +1777,17 @@
     <xf numFmtId="14" fontId="33" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1781,22 +1798,22 @@
     <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1804,12 +1821,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1846,7 +1857,7 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>11410</v>
+        <v>11455</v>
         <stp/>
         <stp>ru1809</stp>
         <stp>LastPrice</stp>
@@ -1854,14 +1865,22 @@
         <tr r="P37" s="1"/>
       </tp>
       <tp>
-        <v>13405</v>
+        <v>5509</v>
+        <stp/>
+        <stp>sr901</stp>
+        <stp>LastPrice</stp>
+        <tr r="P64" s="1"/>
+        <tr r="P63" s="1"/>
+      </tp>
+      <tp>
+        <v>13425</v>
         <stp/>
         <stp>ru1901</stp>
         <stp>LastPrice</stp>
         <tr r="P38" s="1"/>
       </tp>
       <tp>
-        <v>14760</v>
+        <v>14860</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
@@ -1869,26 +1888,26 @@
         <tr r="P8" s="1"/>
       </tp>
       <tp>
-        <v>485.5</v>
+        <v>482.5</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="9"/>
+        <tr r="P29" s="1"/>
         <tr r="P28" s="1"/>
-        <tr r="P29" s="1"/>
       </tp>
       <tp>
-        <v>9498</v>
+        <v>9599</v>
         <stp/>
         <stp>ap901</stp>
         <stp>LastPrice</stp>
-        <tr r="P47" s="1"/>
         <tr r="P45" s="1"/>
         <tr r="P44" s="1"/>
         <tr r="P46" s="1"/>
+        <tr r="P47" s="1"/>
       </tp>
       <tp>
-        <v>3801</v>
+        <v>3810</v>
         <stp/>
         <stp>hc1810</stp>
         <stp>LastPrice</stp>
@@ -1900,13 +1919,13 @@
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P18" s="9"/>
         <tr r="P21" s="9"/>
-        <tr r="P18" s="9"/>
+        <tr r="P26" s="9"/>
         <tr r="P29" s="9"/>
-        <tr r="P26" s="9"/>
       </tp>
       <tp>
-        <v>3683</v>
+        <v>3677</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
@@ -2216,10 +2235,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:V116"/>
+  <dimension ref="B1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114:R116"/>
+    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X110" sqref="X110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7465,6 +7484,159 @@
         <v>-1</v>
       </c>
       <c r="R116" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B117" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G117" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J117" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K117" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M117" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N117" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O117" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P117" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q117" s="33"/>
+      <c r="R117" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B118" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="C118" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" s="93">
+        <v>43236</v>
+      </c>
+      <c r="E118" s="93">
+        <v>43430</v>
+      </c>
+      <c r="F118" s="92">
+        <v>5200</v>
+      </c>
+      <c r="G118" s="92">
+        <v>194</v>
+      </c>
+      <c r="H118" s="92">
+        <v>0.53150684931506853</v>
+      </c>
+      <c r="I118" s="92">
+        <v>0</v>
+      </c>
+      <c r="J118" s="92">
+        <v>0.1</v>
+      </c>
+      <c r="K118" s="92">
+        <v>48.289310808150503</v>
+      </c>
+      <c r="L118" s="92"/>
+      <c r="M118" s="92">
+        <v>0</v>
+      </c>
+      <c r="N118" s="99">
+        <v>48.289310808150503</v>
+      </c>
+      <c r="O118" s="92">
+        <v>5503</v>
+      </c>
+      <c r="P118" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q118" s="92">
+        <v>1</v>
+      </c>
+      <c r="R118" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B119" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" s="93">
+        <v>43236</v>
+      </c>
+      <c r="E119" s="93">
+        <v>43430</v>
+      </c>
+      <c r="F119" s="92">
+        <v>5200</v>
+      </c>
+      <c r="G119" s="92">
+        <v>194</v>
+      </c>
+      <c r="H119" s="92">
+        <v>0.53150684931506853</v>
+      </c>
+      <c r="I119" s="92">
+        <v>0</v>
+      </c>
+      <c r="J119" s="92">
+        <v>0.15</v>
+      </c>
+      <c r="K119" s="92">
+        <v>-111.23715733611107</v>
+      </c>
+      <c r="L119" s="92"/>
+      <c r="M119" s="92">
+        <v>0</v>
+      </c>
+      <c r="N119" s="99">
+        <v>111.23715733611107</v>
+      </c>
+      <c r="O119" s="92">
+        <v>5503</v>
+      </c>
+      <c r="P119" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q119" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R119" s="92" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7672,11 +7844,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -7745,11 +7917,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -7815,11 +7987,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -8537,9 +8709,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:Y62"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -8554,71 +8726,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="143"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="G3" s="144" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="G3" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="L3" s="140" t="s">
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="L3" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="Q3" s="144" t="s">
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="Q3" s="141" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="G4" s="141" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="G4" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="L4" s="141" t="s">
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="L4" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="Q4" s="141" t="s">
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="Q4" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="138" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="138"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
       <c r="G5" s="138" t="s">
         <v>123</v>
       </c>
@@ -8643,252 +8815,252 @@
         <v>124</v>
       </c>
       <c r="C6" s="138"/>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="137"/>
+      <c r="E6" s="140"/>
       <c r="G6" s="138" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="138"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="137"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
       <c r="L6" s="138" t="s">
         <v>124</v>
       </c>
       <c r="M6" s="138"/>
-      <c r="N6" s="136" t="s">
+      <c r="N6" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="137"/>
+      <c r="O6" s="140"/>
       <c r="Q6" s="138" t="s">
         <v>126</v>
       </c>
       <c r="R6" s="138"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="137"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="140"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="138" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="138"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="137"/>
+      <c r="E7" s="140"/>
       <c r="G7" s="138" t="s">
         <v>128</v>
       </c>
       <c r="H7" s="138"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="137"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="140"/>
       <c r="L7" s="138" t="s">
         <v>127</v>
       </c>
       <c r="M7" s="138"/>
-      <c r="N7" s="136" t="s">
+      <c r="N7" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="137"/>
+      <c r="O7" s="140"/>
       <c r="Q7" s="138" t="s">
         <v>128</v>
       </c>
       <c r="R7" s="138"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="137"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="140"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="138" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="138"/>
-      <c r="D8" s="136">
+      <c r="D8" s="139">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="137"/>
+      <c r="E8" s="140"/>
       <c r="G8" s="138" t="s">
         <v>130</v>
       </c>
       <c r="H8" s="138"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="137"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="140"/>
       <c r="L8" s="138" t="s">
         <v>129</v>
       </c>
       <c r="M8" s="138"/>
-      <c r="N8" s="136">
+      <c r="N8" s="139">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="137"/>
+      <c r="O8" s="140"/>
       <c r="Q8" s="138" t="s">
         <v>130</v>
       </c>
       <c r="R8" s="138"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="137"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="140"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="138" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="138"/>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="137"/>
+      <c r="E9" s="140"/>
       <c r="G9" s="138" t="s">
         <v>133</v>
       </c>
       <c r="H9" s="138"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="140"/>
       <c r="L9" s="138" t="s">
         <v>131</v>
       </c>
       <c r="M9" s="138"/>
-      <c r="N9" s="136" t="s">
+      <c r="N9" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="137"/>
+      <c r="O9" s="140"/>
       <c r="Q9" s="138" t="s">
         <v>133</v>
       </c>
       <c r="R9" s="138"/>
-      <c r="S9" s="136"/>
-      <c r="T9" s="137"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="140"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="138" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="138"/>
-      <c r="D10" s="136">
+      <c r="D10" s="139">
         <v>43084</v>
       </c>
-      <c r="E10" s="137"/>
+      <c r="E10" s="140"/>
       <c r="G10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="105"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
       <c r="L10" s="138" t="s">
         <v>134</v>
       </c>
       <c r="M10" s="138"/>
-      <c r="N10" s="136">
+      <c r="N10" s="139">
         <v>43084</v>
       </c>
-      <c r="O10" s="137"/>
+      <c r="O10" s="140"/>
       <c r="Q10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="105"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="137"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="140"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="138" t="s">
         <v>136</v>
       </c>
       <c r="C11" s="138"/>
-      <c r="D11" s="136">
+      <c r="D11" s="139">
         <v>3935</v>
       </c>
-      <c r="E11" s="137"/>
+      <c r="E11" s="140"/>
       <c r="G11" s="138" t="s">
         <v>137</v>
       </c>
       <c r="H11" s="138"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="140"/>
       <c r="L11" s="138" t="s">
         <v>136</v>
       </c>
       <c r="M11" s="138"/>
-      <c r="N11" s="136">
+      <c r="N11" s="139">
         <v>3935</v>
       </c>
-      <c r="O11" s="137"/>
+      <c r="O11" s="140"/>
       <c r="Q11" s="138" t="s">
         <v>137</v>
       </c>
       <c r="R11" s="138"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="137"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="140"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="138" t="s">
         <v>138</v>
       </c>
       <c r="C12" s="138"/>
-      <c r="D12" s="136">
+      <c r="D12" s="139">
         <v>3800</v>
       </c>
-      <c r="E12" s="137"/>
+      <c r="E12" s="140"/>
       <c r="G12" s="138" t="s">
         <v>139</v>
       </c>
       <c r="H12" s="138"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="137"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
       <c r="L12" s="138" t="s">
         <v>163</v>
       </c>
       <c r="M12" s="138"/>
-      <c r="N12" s="136">
+      <c r="N12" s="139">
         <v>3800</v>
       </c>
-      <c r="O12" s="137"/>
+      <c r="O12" s="140"/>
       <c r="Q12" s="138" t="s">
         <v>167</v>
       </c>
       <c r="R12" s="138"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="137"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="140"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="138" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="138"/>
-      <c r="D13" s="136">
+      <c r="D13" s="139">
         <v>61</v>
       </c>
-      <c r="E13" s="137"/>
+      <c r="E13" s="140"/>
       <c r="G13" s="138" t="s">
         <v>141</v>
       </c>
       <c r="H13" s="138"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="137"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="140"/>
       <c r="L13" s="138" t="s">
         <v>164</v>
       </c>
       <c r="M13" s="138"/>
-      <c r="N13" s="136">
+      <c r="N13" s="139">
         <v>3800</v>
       </c>
-      <c r="O13" s="137"/>
+      <c r="O13" s="140"/>
       <c r="Q13" s="138" t="s">
         <v>168</v>
       </c>
       <c r="R13" s="138"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="137"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="140"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="138" t="s">
         <v>142</v>
       </c>
       <c r="C14" s="138"/>
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="137"/>
+      <c r="E14" s="140"/>
       <c r="G14" s="138" t="s">
         <v>144</v>
       </c>
@@ -8899,40 +9071,40 @@
         <v>140</v>
       </c>
       <c r="M14" s="138"/>
-      <c r="N14" s="136">
+      <c r="N14" s="139">
         <v>61</v>
       </c>
-      <c r="O14" s="137"/>
+      <c r="O14" s="140"/>
       <c r="Q14" s="138" t="s">
         <v>141</v>
       </c>
       <c r="R14" s="138"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="137"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="140"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="138" t="s">
         <v>145</v>
       </c>
       <c r="C15" s="138"/>
-      <c r="D15" s="136">
+      <c r="D15" s="139">
         <v>5000</v>
       </c>
-      <c r="E15" s="137"/>
+      <c r="E15" s="140"/>
       <c r="G15" s="138" t="s">
         <v>146</v>
       </c>
       <c r="H15" s="138"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="137"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
       <c r="L15" s="138" t="s">
         <v>142</v>
       </c>
       <c r="M15" s="138"/>
-      <c r="N15" s="136" t="s">
+      <c r="N15" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="137"/>
+      <c r="O15" s="140"/>
       <c r="Q15" s="138" t="s">
         <v>144</v>
       </c>
@@ -8941,50 +9113,50 @@
       <c r="T15" s="107"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="134" t="s">
+      <c r="C16" s="135"/>
+      <c r="D16" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="135"/>
-      <c r="G16" s="133" t="s">
+      <c r="E16" s="137"/>
+      <c r="G16" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="133"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
       <c r="L16" s="138" t="s">
         <v>145</v>
       </c>
       <c r="M16" s="138"/>
-      <c r="N16" s="136">
+      <c r="N16" s="139">
         <v>5000</v>
       </c>
-      <c r="O16" s="137"/>
+      <c r="O16" s="140"/>
       <c r="Q16" s="138" t="s">
         <v>146</v>
       </c>
       <c r="R16" s="138"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="137"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="140"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="133" t="s">
+      <c r="L17" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="133"/>
-      <c r="N17" s="134" t="s">
+      <c r="M17" s="135"/>
+      <c r="N17" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="135"/>
-      <c r="Q17" s="133" t="s">
+      <c r="O17" s="137"/>
+      <c r="Q17" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="133"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="135"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="137"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="108" t="s">
@@ -9014,36 +9186,36 @@
       <c r="Y21" s="109"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="G22" s="131" t="s">
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="G22" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="L22" s="141" t="s">
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="L22" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="Q22" s="131" t="s">
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="Q22" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="V22" s="141" t="s">
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="V22" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="W22" s="141"/>
-      <c r="X22" s="141"/>
-      <c r="Y22" s="141"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B23" s="124" t="s">
@@ -9053,43 +9225,43 @@
       <c r="D23" s="130">
         <v>43209</v>
       </c>
-      <c r="E23" s="132"/>
+      <c r="E23" s="133"/>
       <c r="G23" s="124" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="124"/>
       <c r="I23" s="130">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
-      </c>
-      <c r="J23" s="132"/>
+        <v>43236</v>
+      </c>
+      <c r="J23" s="133"/>
       <c r="L23" s="124" t="s">
         <v>122</v>
       </c>
       <c r="M23" s="124"/>
       <c r="N23" s="130">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
-      </c>
-      <c r="O23" s="132"/>
+        <v>43236</v>
+      </c>
+      <c r="O23" s="133"/>
       <c r="Q23" s="124" t="s">
         <v>122</v>
       </c>
       <c r="R23" s="124"/>
       <c r="S23" s="130">
         <f ca="1">TODAY()-1</f>
-        <v>43234</v>
-      </c>
-      <c r="T23" s="132"/>
+        <v>43235</v>
+      </c>
+      <c r="T23" s="133"/>
       <c r="V23" s="124" t="s">
         <v>122</v>
       </c>
       <c r="W23" s="124"/>
       <c r="X23" s="130">
         <f ca="1">TODAY()-1</f>
-        <v>43234</v>
-      </c>
-      <c r="Y23" s="132"/>
+        <v>43235</v>
+      </c>
+      <c r="Y23" s="133"/>
     </row>
     <row r="24" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B24" s="124" t="s">
@@ -9564,30 +9736,30 @@
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="G36" s="131" t="s">
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="G36" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="L36" s="131" t="s">
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="L36" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="Q36" s="131" t="s">
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="132"/>
+      <c r="Q36" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="R36" s="131"/>
-      <c r="S36" s="131"/>
-      <c r="T36" s="131"/>
+      <c r="R36" s="132"/>
+      <c r="S36" s="132"/>
+      <c r="T36" s="132"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B37" s="124" t="s">
@@ -9597,7 +9769,7 @@
       <c r="D37" s="130">
         <v>43229</v>
       </c>
-      <c r="E37" s="132"/>
+      <c r="E37" s="133"/>
       <c r="G37" s="124" t="s">
         <v>122</v>
       </c>
@@ -9605,7 +9777,7 @@
       <c r="I37" s="130">
         <v>43229</v>
       </c>
-      <c r="J37" s="132"/>
+      <c r="J37" s="133"/>
       <c r="L37" s="124" t="s">
         <v>122</v>
       </c>
@@ -9613,7 +9785,7 @@
       <c r="N37" s="130">
         <v>43214</v>
       </c>
-      <c r="O37" s="132"/>
+      <c r="O37" s="133"/>
       <c r="Q37" s="124" t="s">
         <v>122</v>
       </c>
@@ -9621,7 +9793,7 @@
       <c r="S37" s="130">
         <v>43209</v>
       </c>
-      <c r="T37" s="132"/>
+      <c r="T37" s="133"/>
     </row>
     <row r="38" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B38" s="124" t="s">
@@ -9819,7 +9991,7 @@
       <c r="L43" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="145"/>
+      <c r="M43" s="131"/>
       <c r="N43" s="125">
         <v>14535</v>
       </c>
@@ -10008,18 +10180,18 @@
       <c r="T48" s="129"/>
     </row>
     <row r="49" spans="2:10" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="131" t="s">
+      <c r="B49" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131"/>
-      <c r="G49" s="131" t="s">
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="G49" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="H49" s="131"/>
-      <c r="I49" s="131"/>
-      <c r="J49" s="131"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="132"/>
     </row>
     <row r="50" spans="2:10" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B50" s="124" t="s">
@@ -10029,15 +10201,15 @@
       <c r="D50" s="130">
         <v>43235</v>
       </c>
-      <c r="E50" s="132"/>
+      <c r="E50" s="133"/>
       <c r="G50" s="124" t="s">
         <v>122</v>
       </c>
       <c r="H50" s="124"/>
       <c r="I50" s="130">
-        <v>43235</v>
-      </c>
-      <c r="J50" s="132"/>
+        <v>43236</v>
+      </c>
+      <c r="J50" s="133"/>
     </row>
     <row r="51" spans="2:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B51" s="124" t="s">
@@ -10144,7 +10316,7 @@
       <c r="G56" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="H56" s="145"/>
+      <c r="H56" s="131"/>
       <c r="I56" s="125">
         <v>14730</v>
       </c>
@@ -10243,179 +10415,185 @@
     <row r="62" spans="2:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="376">
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -10440,185 +10618,179 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10631,8 +10803,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63:S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10798,11 +10970,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E25" ca="1" si="0">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -10822,7 +10994,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-3.9207204133237781</v>
+        <v>-3.2379040675399438</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -10831,11 +11003,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>3.9207204133237781</v>
+        <v>3.2379040675399438</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14760</v>
+        <v>14860</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -10849,15 +11021,15 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>2.6563146431732916E-4</v>
+        <v>2.1789394801749286E-4</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>7.4584751224904267E-3</v>
+        <v>6.2316669591666596E-3</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-1.5265335900654406</v>
+        <v>-1.3126349682371412</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10873,11 +11045,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G9" s="10">
         <v>11500</v>
@@ -10897,7 +11069,7 @@
       </c>
       <c r="L9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-3.9207204133237781</v>
+        <v>-3.2379040675399438</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="13">
@@ -10906,11 +11078,11 @@
       </c>
       <c r="O9" s="13">
         <f>IF(L9&lt;=0,ABS(L9)+N9,L9-N9)</f>
-        <v>3.9207204133237781</v>
+        <v>3.2379040675399438</v>
       </c>
       <c r="P9" s="11">
         <f>RTD("wdf.rtq",,D9,"LastPrice")</f>
-        <v>14760</v>
+        <v>14860</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>85</v>
@@ -10924,15 +11096,15 @@
       </c>
       <c r="T9" s="14">
         <f t="shared" ref="T9" si="8">O9/P9</f>
-        <v>2.6563146431732916E-4</v>
+        <v>2.1789394801749286E-4</v>
       </c>
       <c r="U9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>7.4584751224904267E-3</v>
+        <v>6.2316669591666596E-3</v>
       </c>
       <c r="V9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-1.5265335900654406</v>
+        <v>-1.3126349682371412</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
@@ -10954,11 +11126,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ref="F11" ca="1" si="9">E11+H11</f>
-        <v>43236</v>
+        <v>43237</v>
       </c>
       <c r="G11" s="11">
         <v>3700</v>
@@ -11040,11 +11212,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="13">E13+H13</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G13" s="11">
         <f>P13</f>
@@ -11126,11 +11298,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14" ca="1" si="17">E14+H14</f>
-        <v>43295</v>
+        <v>43296</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" ref="G14:G23" si="18">P14</f>
@@ -11237,11 +11409,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="22">E16+H16</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="18"/>
@@ -11348,11 +11520,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F21" ca="1" si="26">E18+H18</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="18"/>
@@ -11434,11 +11606,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G19" s="11">
         <v>3300</v>
@@ -11458,7 +11630,7 @@
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>3.0112171525364033</v>
+        <v>3.217593351041387</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="13">
@@ -11467,11 +11639,11 @@
       </c>
       <c r="O19" s="13">
         <f>IF(L19&lt;=0,ABS(L19)+N19,L19-N19)</f>
-        <v>3.0112171525364033</v>
+        <v>3.217593351041387</v>
       </c>
       <c r="P19" s="11">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>3683</v>
+        <v>3677</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -11485,15 +11657,15 @@
       </c>
       <c r="T19" s="14">
         <f t="shared" si="29"/>
-        <v>8.1759900964876553E-4</v>
+        <v>8.7505938293211503E-4</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-3.3385766418092544E-2</v>
+        <v>-3.5423382982457952E-2</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>0.75821148023418061</v>
+        <v>0.79464535878298648</v>
       </c>
       <c r="W19" s="114">
         <v>37.799999999999997</v>
@@ -11504,7 +11676,7 @@
       </c>
       <c r="Y19" s="6">
         <f>500*U19</f>
-        <v>-16.692883209046272</v>
+        <v>-17.711691491228976</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11520,11 +11692,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G20" s="11">
         <v>3350</v>
@@ -11544,7 +11716,7 @@
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>5.8061458037360865</v>
+        <v>6.1651980583849877</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="13">
@@ -11553,11 +11725,11 @@
       </c>
       <c r="O20" s="13">
         <f>IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>5.8061458037360865</v>
+        <v>6.1651980583849877</v>
       </c>
       <c r="P20" s="11">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>3683</v>
+        <v>3677</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -11571,15 +11743,15 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" si="29"/>
-        <v>1.5764718446201701E-3</v>
+        <v>1.67669242817106E-3</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-5.8281241282998053E-2</v>
+        <v>-6.1425259917768926E-2</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>1.1867722086642516</v>
+        <v>1.2345571679969396</v>
       </c>
       <c r="W20" s="114">
         <v>37.799999999999997</v>
@@ -11590,7 +11762,7 @@
       </c>
       <c r="Y20" s="6">
         <f>500*U20</f>
-        <v>-29.140620641499027</v>
+        <v>-30.712629958884463</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11606,11 +11778,11 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G21" s="11">
         <v>3400</v>
@@ -11630,7 +11802,7 @@
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>10.389699091480168</v>
+        <v>10.968574718869093</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="13">
@@ -11639,11 +11811,11 @@
       </c>
       <c r="O21" s="13">
         <f>IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>10.389699091480168</v>
+        <v>10.968574718869093</v>
       </c>
       <c r="P21" s="11">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3683</v>
+        <v>3677</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
@@ -11657,15 +11829,15 @@
       </c>
       <c r="T21" s="14">
         <f t="shared" si="29"/>
-        <v>2.8209880780559783E-3</v>
+        <v>2.9830227682537645E-3</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-9.4257227073057948E-2</v>
+        <v>-9.8727892361694103E-2</v>
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>1.712228952099764</v>
+        <v>1.7686204470719815</v>
       </c>
       <c r="W21" s="114">
         <v>37.799999999999997</v>
@@ -11676,7 +11848,7 @@
       </c>
       <c r="Y21" s="6">
         <f>500*U21</f>
-        <v>-47.128613536528974</v>
+        <v>-49.363946180847051</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11717,11 +11889,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ref="F23" ca="1" si="30">E23+H23</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="18"/>
@@ -11827,11 +11999,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" ca="1" si="34">E25+H25</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G25" s="11">
         <v>49000</v>
@@ -11947,11 +12119,11 @@
       <c r="S27" s="10"/>
       <c r="T27" s="14">
         <f>T28+T29</f>
-        <v>0.14573682707165364</v>
+        <v>0.14709899996612175</v>
       </c>
       <c r="U27" s="12">
         <f>T27/2</f>
-        <v>7.286841353582682E-2</v>
+        <v>7.3549499983060873E-2</v>
       </c>
       <c r="V27" s="13"/>
     </row>
@@ -11968,11 +12140,11 @@
       </c>
       <c r="E28" s="8">
         <f t="shared" ref="E28:E36" ca="1" si="38">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ref="F28:F37" ca="1" si="39">E28+H28</f>
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="G28" s="11">
         <v>500</v>
@@ -11992,7 +12164,7 @@
       </c>
       <c r="L28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-42.588787606373756</v>
+        <v>-44.190773369949056</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="13">
@@ -12001,11 +12173,11 @@
       </c>
       <c r="O28" s="13">
         <f>IF(L28&lt;=0,ABS(L28)+N28,L28-N28)</f>
-        <v>42.588787606373756</v>
+        <v>44.190773369949056</v>
       </c>
       <c r="P28" s="11">
         <f>RTD("wdf.rtq",,D28,"LastPrice")</f>
-        <v>485.5</v>
+        <v>482.5</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>85</v>
@@ -12019,15 +12191,15 @@
       </c>
       <c r="T28" s="14">
         <f t="shared" ref="T28:T37" si="42">O28/P28</f>
-        <v>8.7721498674302276E-2</v>
+        <v>9.1587095067251934E-2</v>
       </c>
       <c r="U28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>0.52714919598457755</v>
+        <v>0.54084813702957035</v>
       </c>
       <c r="V28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-0.99540348639240506</v>
+        <v>-0.98607728330543409</v>
       </c>
       <c r="W28" s="114">
         <v>37.799999999999997</v>
@@ -12038,11 +12210,11 @@
       </c>
       <c r="Y28" s="6">
         <f>500*U28</f>
-        <v>263.57459799228877</v>
+        <v>270.42406851478518</v>
       </c>
       <c r="Z28" s="119">
         <f>U28+U29</f>
-        <v>5.965386304040976E-2</v>
+        <v>8.7051745136079717E-2</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12058,11 +12230,11 @@
       </c>
       <c r="E29" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="G29" s="11">
         <v>500</v>
@@ -12082,7 +12254,7 @@
       </c>
       <c r="L29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-28.166441936914083</v>
+        <v>-26.784494113704682</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="13">
@@ -12091,11 +12263,11 @@
       </c>
       <c r="O29" s="13">
         <f>IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
-        <v>28.166441936914083</v>
+        <v>26.784494113704682</v>
       </c>
       <c r="P29" s="11">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>485.5</v>
+        <v>482.5</v>
       </c>
       <c r="Q29" s="10" t="s">
         <v>39</v>
@@ -12109,15 +12281,15 @@
       </c>
       <c r="T29" s="14">
         <f t="shared" si="42"/>
-        <v>5.8015328397351358E-2</v>
+        <v>5.5511904898869806E-2</v>
       </c>
       <c r="U29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.46749533294416779</v>
+        <v>-0.45379639189349064</v>
       </c>
       <c r="V29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.9954034863924619</v>
+        <v>-0.98607728330541988</v>
       </c>
       <c r="W29" s="114">
         <v>37.799999999999997</v>
@@ -12128,7 +12300,7 @@
       </c>
       <c r="Y29" s="6">
         <f>500*U29</f>
-        <v>-233.74766647208389</v>
+        <v>-226.89819594674532</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12170,11 +12342,11 @@
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" ref="G31:G34" si="43">P31</f>
@@ -12256,11 +12428,11 @@
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="43"/>
@@ -12368,11 +12540,11 @@
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="43"/>
@@ -12480,11 +12652,11 @@
       </c>
       <c r="E36" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G36" s="11">
         <v>12105</v>
@@ -12504,22 +12676,22 @@
       </c>
       <c r="L36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-147.18874836604164</v>
+        <v>-159.18971478456115</v>
       </c>
       <c r="M36" s="15">
         <v>70</v>
       </c>
       <c r="N36" s="13">
         <f t="shared" si="40"/>
-        <v>6.5646575342465745</v>
+        <v>6.5905479452054792</v>
       </c>
       <c r="O36" s="13">
         <f>IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
-        <v>153.75340590028821</v>
+        <v>165.78026272976663</v>
       </c>
       <c r="P36" s="11">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>11410</v>
+        <v>11455</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>39</v>
@@ -12533,15 +12705,15 @@
       </c>
       <c r="T36" s="14">
         <f t="shared" si="42"/>
-        <v>1.3475320411944628E-2</v>
+        <v>1.4472305781734319E-2</v>
       </c>
       <c r="U36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-0.25920644318375707</v>
+        <v>-0.27423121550782525</v>
       </c>
       <c r="V36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-10.582960133488768</v>
+        <v>-10.931545503274492</v>
       </c>
       <c r="W36" s="114">
         <v>37.799999999999997</v>
@@ -12552,7 +12724,7 @@
       </c>
       <c r="Y36" s="6">
         <f>500*U36</f>
-        <v>-129.60322159187854</v>
+        <v>-137.11560775391263</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12568,11 +12740,11 @@
       </c>
       <c r="E37" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="G37" s="11">
         <v>12105</v>
@@ -12592,22 +12764,22 @@
       </c>
       <c r="L37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-424.17730724480271</v>
+        <v>-441.38337051627695</v>
       </c>
       <c r="M37" s="15">
         <v>70</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="40"/>
-        <v>19.693972602739727</v>
+        <v>19.771643835616437</v>
       </c>
       <c r="O37" s="13">
         <f>IF(L37&lt;=0,ABS(L37)+N37,L37-N37)</f>
-        <v>443.87127984754244</v>
+        <v>461.15501435189339</v>
       </c>
       <c r="P37" s="11">
         <f>RTD("wdf.rtq",,D37,"LastPrice")</f>
-        <v>11410</v>
+        <v>11455</v>
       </c>
       <c r="Q37" s="10" t="s">
         <v>39</v>
@@ -12621,15 +12793,15 @@
       </c>
       <c r="T37" s="14">
         <f t="shared" si="42"/>
-        <v>3.8901952659732029E-2</v>
+        <v>4.0257967206625347E-2</v>
       </c>
       <c r="U37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-0.37749974551388732</v>
+        <v>-0.3872199945135435</v>
       </c>
       <c r="V37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-21.454138175872686</v>
+        <v>-21.701678654369971</v>
       </c>
       <c r="W37" s="114">
         <v>37.799999999999997</v>
@@ -12640,7 +12812,7 @@
       </c>
       <c r="Y37" s="6">
         <f>500*U37</f>
-        <v>-188.74987275694366</v>
+        <v>-193.60999725677175</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12656,11 +12828,11 @@
       </c>
       <c r="E38" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ref="F38" ca="1" si="44">E38+H38</f>
-        <v>43335</v>
+        <v>43336</v>
       </c>
       <c r="G38" s="11">
         <v>12105</v>
@@ -12680,22 +12852,22 @@
       </c>
       <c r="L38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-1634.0045778743497</v>
+        <v>-1649.1174943696878</v>
       </c>
       <c r="M38" s="15">
         <v>70</v>
       </c>
       <c r="N38" s="13">
         <f t="shared" ref="N38" si="45">M38/10000*I38*P38</f>
-        <v>25.708219178082192</v>
+        <v>25.746575342465754</v>
       </c>
       <c r="O38" s="13">
         <f>IF(L38&lt;=0,ABS(L38)+N38,L38-N38)</f>
-        <v>1659.7127970524318</v>
+        <v>1674.8640697121537</v>
       </c>
       <c r="P38" s="11">
         <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
-        <v>13405</v>
+        <v>13425</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>39</v>
@@ -12709,15 +12881,15 @@
       </c>
       <c r="T38" s="14">
         <f t="shared" ref="T38" si="47">O38/P38</f>
-        <v>0.12381296509156522</v>
+        <v>0.12475710016477867</v>
       </c>
       <c r="U38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-0.75424553942866623</v>
+        <v>-0.75704244081862271</v>
       </c>
       <c r="V38" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-21.768581662970064</v>
+        <v>-21.662305566967007</v>
       </c>
       <c r="W38" s="114">
         <v>37.799999999999997</v>
@@ -12728,7 +12900,7 @@
       </c>
       <c r="Y38" s="6">
         <f>500*U38</f>
-        <v>-377.12276971433312</v>
+        <v>-378.52122040931135</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12744,11 +12916,11 @@
       </c>
       <c r="E40" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ref="F40:F41" ca="1" si="48">E40+H40</f>
-        <v>43267</v>
+        <v>43268</v>
       </c>
       <c r="G40" s="11">
         <v>15800</v>
@@ -12833,11 +13005,11 @@
       </c>
       <c r="E41" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" ca="1" si="48"/>
-        <v>43267</v>
+        <v>43268</v>
       </c>
       <c r="G41" s="11">
         <v>15900</v>
@@ -12922,11 +13094,11 @@
       </c>
       <c r="E42" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" ref="F42" ca="1" si="52">E42+H42</f>
-        <v>43267</v>
+        <v>43268</v>
       </c>
       <c r="G42" s="11">
         <v>15660</v>
@@ -13011,11 +13183,11 @@
       </c>
       <c r="E44" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" ref="F44:F45" ca="1" si="56">E44+H44</f>
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="G44" s="11">
         <v>9000</v>
@@ -13035,7 +13207,7 @@
       </c>
       <c r="L44" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-835.04273259766705</v>
+        <v>-903.38699135441766</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="13">
@@ -13044,11 +13216,11 @@
       </c>
       <c r="O44" s="13">
         <f>IF(L44&lt;=0,ABS(L44)+N44,L44-N44)</f>
-        <v>835.04273259766705</v>
+        <v>903.38699135441766</v>
       </c>
       <c r="P44" s="11">
         <f>RTD("wdf.rtq",,D44,"LastPrice")</f>
-        <v>9498</v>
+        <v>9599</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>39</v>
@@ -13062,15 +13234,15 @@
       </c>
       <c r="T44" s="14">
         <f t="shared" ref="T44:T45" si="59">O44/P44</f>
-        <v>8.7917744009019486E-2</v>
+        <v>9.4112614996814004E-2</v>
       </c>
       <c r="U44" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-0.66409483456482121</v>
+        <v>-0.68907596128156001</v>
       </c>
       <c r="V44" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-17.233720745063692</v>
+        <v>-16.853366905528674</v>
       </c>
       <c r="W44" s="114">
         <v>37.799999999999997</v>
@@ -13081,11 +13253,11 @@
       </c>
       <c r="Y44" s="6">
         <f>500*U44</f>
-        <v>-332.04741728241061</v>
+        <v>-344.53798064078001</v>
       </c>
       <c r="Z44" s="6">
         <f>1000000/P44/10</f>
-        <v>10.528532322594231</v>
+        <v>10.417751849150953</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13101,11 +13273,11 @@
       </c>
       <c r="E45" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="G45" s="11">
         <v>10000</v>
@@ -13125,7 +13297,7 @@
       </c>
       <c r="L45" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-366.19589763446311</v>
+        <v>-407.24617860170565</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="13">
@@ -13134,11 +13306,11 @@
       </c>
       <c r="O45" s="13">
         <f>IF(L45&lt;=0,ABS(L45)+N45,L45-N45)</f>
-        <v>366.19589763446311</v>
+        <v>407.24617860170565</v>
       </c>
       <c r="P45" s="11">
         <f>RTD("wdf.rtq",,D45,"LastPrice")</f>
-        <v>9498</v>
+        <v>9599</v>
       </c>
       <c r="Q45" s="10" t="s">
         <v>39</v>
@@ -13152,15 +13324,15 @@
       </c>
       <c r="T45" s="14">
         <f t="shared" si="59"/>
-        <v>3.8555053446458529E-2</v>
+        <v>4.2425896301875786E-2</v>
       </c>
       <c r="U45" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-0.39288416844556195</v>
+        <v>-0.42001836638974055</v>
       </c>
       <c r="V45" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-18.265567169204132</v>
+        <v>-18.762843681829736</v>
       </c>
       <c r="W45" s="114">
         <v>37.799999999999997</v>
@@ -13171,7 +13343,7 @@
       </c>
       <c r="Y45" s="6">
         <f>500*U45</f>
-        <v>-196.44208422278098</v>
+        <v>-210.00918319487027</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13187,11 +13359,11 @@
       </c>
       <c r="E46" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" ref="F46:F47" ca="1" si="60">E46+H46</f>
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="G46" s="11">
         <v>9000</v>
@@ -13211,7 +13383,7 @@
       </c>
       <c r="L46" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-1045.6992974906634</v>
+        <v>-1110.6694095552266</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="13">
@@ -13220,11 +13392,11 @@
       </c>
       <c r="O46" s="13">
         <f>IF(L46&lt;=0,ABS(L46)+N46,L46-N46)</f>
-        <v>1045.6992974906634</v>
+        <v>1110.6694095552266</v>
       </c>
       <c r="P46" s="11">
         <f>RTD("wdf.rtq",,D46,"LastPrice")</f>
-        <v>9498</v>
+        <v>9599</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>39</v>
@@ -13238,15 +13410,15 @@
       </c>
       <c r="T46" s="14">
         <f t="shared" ref="T46:T47" si="63">O46/P46</f>
-        <v>0.11009678853344529</v>
+        <v>0.11570678295189359</v>
       </c>
       <c r="U46" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-0.63409153117390815</v>
+        <v>-0.65235484712502512</v>
       </c>
       <c r="V46" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-24.897031187943867</v>
+        <v>-24.684066262632768</v>
       </c>
       <c r="W46" s="114">
         <v>37.799999999999997</v>
@@ -13257,11 +13429,11 @@
       </c>
       <c r="Y46" s="6">
         <f>500*U46</f>
-        <v>-317.04576558695408</v>
+        <v>-326.17742356251256</v>
       </c>
       <c r="Z46" s="6">
         <f>638*U46</f>
-        <v>-404.5503968889534</v>
+        <v>-416.20239246576602</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13277,11 +13449,11 @@
       </c>
       <c r="E47" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="G47" s="11">
         <v>10000</v>
@@ -13301,7 +13473,7 @@
       </c>
       <c r="L47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-591.68160610284258</v>
+        <v>-637.24720793919732</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="13">
@@ -13310,11 +13482,11 @@
       </c>
       <c r="O47" s="13">
         <f>IF(L47&lt;=0,ABS(L47)+N47,L47-N47)</f>
-        <v>591.68160610284258</v>
+        <v>637.24720793919732</v>
       </c>
       <c r="P47" s="11">
         <f>RTD("wdf.rtq",,D47,"LastPrice")</f>
-        <v>9498</v>
+        <v>9599</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>39</v>
@@ -13328,15 +13500,15 @@
       </c>
       <c r="T47" s="14">
         <f t="shared" si="63"/>
-        <v>6.2295389145382456E-2</v>
+        <v>6.6386832788748545E-2</v>
       </c>
       <c r="U47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-0.44136448766494141</v>
+        <v>-0.46090826097042736</v>
       </c>
       <c r="V47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-26.316040152438973</v>
+        <v>-26.744071749219756</v>
       </c>
       <c r="W47" s="114">
         <v>37.799999999999997</v>
@@ -13347,7 +13519,7 @@
       </c>
       <c r="Y47" s="6">
         <f>500*U47</f>
-        <v>-220.6822438324707</v>
+        <v>-230.45413048521368</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13363,11 +13535,11 @@
       </c>
       <c r="E49" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" ref="F49:F56" ca="1" si="64">E49+H49</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G49" s="11">
         <f>P49</f>
@@ -13453,11 +13625,11 @@
       </c>
       <c r="E50" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" ca="1" si="64"/>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G50" s="11">
         <f>P50</f>
@@ -13570,11 +13742,11 @@
       </c>
       <c r="E52" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" ref="F52:F53" ca="1" si="69">E52+H52</f>
-        <v>43296</v>
+        <v>43297</v>
       </c>
       <c r="G52" s="11">
         <f t="shared" si="68"/>
@@ -13660,11 +13832,11 @@
       </c>
       <c r="E53" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F53" s="8">
         <f t="shared" ca="1" si="69"/>
-        <v>43296</v>
+        <v>43297</v>
       </c>
       <c r="G53" s="11">
         <f t="shared" si="68"/>
@@ -13777,11 +13949,11 @@
       </c>
       <c r="E55" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F55" s="8">
         <f t="shared" ca="1" si="64"/>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="68"/>
@@ -13867,11 +14039,11 @@
       </c>
       <c r="E56" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F56" s="8">
         <f t="shared" ca="1" si="64"/>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="68"/>
@@ -13984,11 +14156,11 @@
       </c>
       <c r="E58" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F58" s="8">
         <f t="shared" ref="F58" ca="1" si="73">E58+H58</f>
-        <v>43294</v>
+        <v>43295</v>
       </c>
       <c r="G58" s="11">
         <v>14500</v>
@@ -14099,11 +14271,11 @@
       </c>
       <c r="E60" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F60" s="8">
         <f t="shared" ref="F60:F61" ca="1" si="77">E60+H60</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G60" s="11">
         <v>3800</v>
@@ -14123,7 +14295,7 @@
       </c>
       <c r="L60" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
-        <v>-127.385485958039</v>
+        <v>-123.1057888167245</v>
       </c>
       <c r="M60" s="15"/>
       <c r="N60" s="13">
@@ -14132,11 +14304,11 @@
       </c>
       <c r="O60" s="13">
         <f>IF(L60&lt;=0,ABS(L60)+N60,L60-N60)</f>
-        <v>127.385485958039</v>
+        <v>123.1057888167245</v>
       </c>
       <c r="P60" s="11">
         <f>RTD("wdf.rtq",,D60,"LastPrice")</f>
-        <v>3801</v>
+        <v>3810</v>
       </c>
       <c r="Q60" s="10" t="s">
         <v>85</v>
@@ -14150,15 +14322,15 @@
       </c>
       <c r="T60" s="14">
         <f t="shared" ref="T60:T61" si="80">O60/P60</f>
-        <v>3.3513676916084978E-2</v>
+        <v>3.2311230660557612E-2</v>
       </c>
       <c r="U60" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
-        <v>0.48108802939168527</v>
+        <v>0.46996324480232943</v>
       </c>
       <c r="V60" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
-        <v>-4.4071465337423206</v>
+        <v>-4.4102470635274358</v>
       </c>
       <c r="W60" s="114">
         <v>37.799999999999997</v>
@@ -14169,11 +14341,11 @@
       </c>
       <c r="Y60" s="6">
         <f>500*U60</f>
-        <v>240.54401469584263</v>
+        <v>234.98162240116471</v>
       </c>
       <c r="Z60" s="6">
         <f>600*U60</f>
-        <v>288.65281763501116</v>
+        <v>281.97794688139766</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -14189,11 +14361,11 @@
       </c>
       <c r="E61" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F61" s="8">
         <f t="shared" ca="1" si="77"/>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G61" s="11">
         <v>3700</v>
@@ -14213,7 +14385,7 @@
       </c>
       <c r="L61" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
-        <v>-82.136801510152964</v>
+        <v>-78.957403884975292</v>
       </c>
       <c r="M61" s="15"/>
       <c r="N61" s="13">
@@ -14222,11 +14394,11 @@
       </c>
       <c r="O61" s="13">
         <f>IF(L61&lt;=0,ABS(L61)+N61,L61-N61)</f>
-        <v>82.136801510152964</v>
+        <v>78.957403884975292</v>
       </c>
       <c r="P61" s="11">
         <f>RTD("wdf.rtq",,D61,"LastPrice")</f>
-        <v>3801</v>
+        <v>3810</v>
       </c>
       <c r="Q61" s="10" t="s">
         <v>85</v>
@@ -14240,15 +14412,15 @@
       </c>
       <c r="T61" s="14">
         <f t="shared" si="80"/>
-        <v>2.160926111816705E-2</v>
+        <v>2.0723728053799288E-2</v>
       </c>
       <c r="U61" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
-        <v>0.35847159743980228</v>
+        <v>0.34808346633781184</v>
       </c>
       <c r="V61" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
-        <v>-4.1332662587161622</v>
+        <v>-4.0997726855970313</v>
       </c>
       <c r="W61" s="114">
         <v>37.799999999999997</v>
@@ -14259,11 +14431,11 @@
       </c>
       <c r="Y61" s="6">
         <f>500*U61</f>
-        <v>179.23579871990114</v>
+        <v>174.04173316890592</v>
       </c>
       <c r="Z61" s="6">
         <f>600*U61</f>
-        <v>215.08295846388137</v>
+        <v>208.85007980268711</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14292,57 +14464,185 @@
       <c r="W62" s="114"/>
       <c r="X62" s="115"/>
     </row>
-    <row r="63" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="34"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="117"/>
-      <c r="L63" s="13"/>
+      <c r="B63" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43236</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" ref="F63:F64" ca="1" si="81">E63+H63</f>
+        <v>43430</v>
+      </c>
+      <c r="G63" s="11">
+        <v>5200</v>
+      </c>
+      <c r="H63" s="10">
+        <v>194</v>
+      </c>
+      <c r="I63" s="12">
+        <f>H63/365</f>
+        <v>0.53150684931506853</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
+      <c r="K63" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="L63" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q63,$P63,$G63,$I63,$C$3,$J63,$K63,$C$4)*R63</f>
+        <v>47.067014903090012</v>
+      </c>
       <c r="M63" s="15"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="114"/>
-      <c r="X63" s="115"/>
-    </row>
-    <row r="64" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N63" s="13">
+        <f t="shared" ref="N63:N64" si="82">M63/10000*I63*P63</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="13">
+        <f>IF(L63&lt;=0,ABS(L63)+N63,L63-N63)</f>
+        <v>47.067014903090012</v>
+      </c>
+      <c r="P63" s="11">
+        <f>RTD("wdf.rtq",,D63,"LastPrice")</f>
+        <v>5509</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R63" s="10">
+        <f t="shared" ref="R63:R64" si="83">IF(S63="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S63" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T63" s="14">
+        <f t="shared" ref="T63:T64" si="84">O63/P63</f>
+        <v>8.5436585411308788E-3</v>
+      </c>
+      <c r="U63" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q63,$P63,$G63,$I63,$C$3,$J63,$K63,$C$4)*R63</f>
+        <v>-0.20161426837148611</v>
+      </c>
+      <c r="V63" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q63,$P63,$G63,$I63,$C$3,$J63,$K63,$C$4)*R63</f>
+        <v>11.222221354096121</v>
+      </c>
+      <c r="W63" s="114">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X63" s="115">
+        <f>G63-W63</f>
+        <v>5162.2</v>
+      </c>
+      <c r="Y63" s="6">
+        <f>500*U63</f>
+        <v>-100.80713418574305</v>
+      </c>
+      <c r="Z63" s="6">
+        <f>600*U63</f>
+        <v>-120.96856102289166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="34"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="13"/>
+      <c r="B64" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43236</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" ca="1" si="81"/>
+        <v>43430</v>
+      </c>
+      <c r="G64" s="11">
+        <v>5200</v>
+      </c>
+      <c r="H64" s="10">
+        <v>194</v>
+      </c>
+      <c r="I64" s="12">
+        <f>H64/365</f>
+        <v>0.53150684931506853</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+      <c r="K64" s="117">
+        <v>0.15</v>
+      </c>
+      <c r="L64" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q64,$P64,$G64,$I64,$C$3,$J64,$K64,$C$4)*R64</f>
+        <v>-109.56432913114827</v>
+      </c>
       <c r="M64" s="15"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="114"/>
-      <c r="X64" s="115"/>
+      <c r="N64" s="13">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="13">
+        <f>IF(L64&lt;=0,ABS(L64)+N64,L64-N64)</f>
+        <v>109.56432913114827</v>
+      </c>
+      <c r="P64" s="11">
+        <f>RTD("wdf.rtq",,D64,"LastPrice")</f>
+        <v>5509</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R64" s="10">
+        <f t="shared" si="83"/>
+        <v>-1</v>
+      </c>
+      <c r="S64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="14">
+        <f t="shared" si="84"/>
+        <v>1.988824271758001E-2</v>
+      </c>
+      <c r="U64" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q64,$P64,$G64,$I64,$C$3,$J64,$K64,$C$4)*R64</f>
+        <v>0.27714204164794864</v>
+      </c>
+      <c r="V64" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q64,$P64,$G64,$I64,$C$3,$J64,$K64,$C$4)*R64</f>
+        <v>-13.371697901302127</v>
+      </c>
+      <c r="W64" s="114">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X64" s="115">
+        <f>G64-W64</f>
+        <v>5162.2</v>
+      </c>
+      <c r="Y64" s="6">
+        <f>500*U64</f>
+        <v>138.57102082397432</v>
+      </c>
+      <c r="Z64" s="6">
+        <f>600*U64</f>
+        <v>166.28522498876919</v>
+      </c>
     </row>
     <row r="65" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="34"/>
@@ -14648,11 +14948,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -14716,11 +15016,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -14787,11 +15087,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -14855,15 +15155,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43250</v>
+        <v>43251</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>465.5</v>
+        <v>462.5</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -14880,17 +15180,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-4.1846822703317201</v>
+        <v>-4.1275207143674777</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>4.1846822703317201</v>
+        <v>4.1275207143674777</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>485.5</v>
+        <v>482.5</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -14905,11 +15205,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.23491823804917544</v>
+        <v>0.23357112862427698</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.30221244924802448</v>
+        <v>-0.29939015517881984</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -14925,15 +15225,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43250</v>
+        <v>43251</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>515.5</v>
+        <v>512.5</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -14952,17 +15252,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.3564052371428943</v>
+        <v>2.3147428182975744</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.3564052371428943</v>
+        <v>2.3147428182975744</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>485.5</v>
+        <v>482.5</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -14977,11 +15277,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.16083564883260237</v>
+        <v>0.15933826730076817</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.24012095555432467</v>
+        <v>0.23718204949661015</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -14998,15 +15298,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43250</v>
+        <v>43251</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>465.5|515.5</v>
+        <v>462.5|512.5</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -15020,7 +15320,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.8282770331888258</v>
+        <v>-1.8127778960699032</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -15031,11 +15331,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.8282770331888258</v>
+        <v>1.8127778960699032</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>485.5</v>
+        <v>482.5</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -15044,15 +15344,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.7657611394208567E-3</v>
+        <v>3.7570526343417682E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.39575388688177782</v>
+        <v>0.39290939592504515</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2091493693699817E-2</v>
+        <v>-6.2208105682209691E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -15068,11 +15368,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -15093,17 +15393,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-328.78669247415155</v>
+        <v>-324.76935929347337</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>328.78669247415155</v>
+        <v>324.76935929347337</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3683</v>
+        <v>3677</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -15118,11 +15418,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.67150752413454029</v>
+        <v>-0.66759929823092534</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.5864388184004383</v>
+        <v>-6.6078749790533493</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15139,11 +15439,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -15165,17 +15465,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>55.14042710737499</v>
+        <v>56.250529477562509</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>55.14042710737499</v>
+        <v>56.250529477562509</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3683</v>
+        <v>3677</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -15190,11 +15490,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.18346657966503699</v>
+        <v>-0.18657378093394072</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.8725700953986006</v>
+        <v>4.9155882781336686</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15211,11 +15511,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -15233,7 +15533,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-273.64626536677656</v>
+        <v>-268.51882981591086</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -15244,11 +15544,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>273.64626536677656</v>
+        <v>268.51882981591086</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3683</v>
+        <v>3677</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -15257,15 +15557,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>7.4299827685793254E-2</v>
+        <v>7.3026605878681219E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.85497410379957728</v>
+        <v>-0.85417307916486607</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.7138687230018377</v>
+        <v>-1.6922867009196807</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -15282,11 +15582,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G18" s="120">
         <v>3000</v>
@@ -15352,11 +15652,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G19" s="121">
         <v>3280</v>
@@ -15424,11 +15724,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -15492,11 +15792,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="G21" s="120">
         <v>3000</v>
@@ -15562,11 +15862,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="G22" s="121">
         <v>3280</v>
@@ -15634,11 +15934,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -15703,11 +16003,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G26" s="120">
         <v>2950</v>
@@ -15773,11 +16073,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G27" s="121">
         <v>3350</v>
@@ -15845,11 +16145,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -15913,11 +16213,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="G29" s="120">
         <v>2950</v>
@@ -15983,11 +16283,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="G30" s="121">
         <v>3350</v>
@@ -16055,11 +16355,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -16463,11 +16763,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -16545,11 +16845,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -16627,11 +16927,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -16709,11 +17009,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -16791,11 +17091,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -16873,11 +17173,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -17731,11 +18031,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -17817,11 +18117,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43415</v>
+        <v>43416</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -17929,11 +18229,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -18016,11 +18316,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -18103,11 +18403,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -18190,11 +18490,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -18277,11 +18577,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -18364,11 +18664,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>
